--- a/dataset/pairs/method_no_hint/prefered_rejected_pairs_part10.xlsx
+++ b/dataset/pairs/method_no_hint/prefered_rejected_pairs_part10.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>56895191-f3ab-4e86-ae2e-74b43b5b794f</t>
+          <t>کدام یک از اعصاب زیر دور مجرای زیرفکی حلقه می‌زند؟</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -522,7 +522,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>62bedbd9-7f28-4e00-8e18-9b71425e6552</t>
+          <t>یک مرد 26 ساله مبتلا به aml تحت شیمی‌درمانی مبتنی بر دوکسوروبیسین قرار گرفت. پس از چند ماه با تنگی نفس و تورم پاها مراجعه کرد. کدام یک از عوارض جانبی دوکسوروبیسین منجر به این علائم شده است؟</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -570,7 +570,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>44797cd6-43bc-4f0e-966a-28785d2d9a54</t>
+          <t>تمام عضلات زیر توسط بخش قدامی عصب ابتوراتور عصب‌دهی می‌شوند به جز</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -619,7 +619,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>b20920e2-b16b-4aa0-9896-c0a96714580f</t>
+          <t>در آسیب کلیوی ناشی از ضربه غیرنافذ به شکم کدام مورد انجام نمی‌شود؟</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -669,7 +669,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>fd9e5665-6e0a-44ce-8357-0195252ddcc1</t>
+          <t>فاصله زمانی بین دریافت عفونت و حداکثر عفونت‌زایی میزبان به عنوان چه چیزی شناخته می‌شود؟</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -721,7 +721,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>13a7dc6a-7345-4f84-8fcc-050adae16972</t>
+          <t>دریچه ای که در اندوکاردیت عفونی ناشی از سقط عفونی درگیر می شود کدام است؟</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -774,7 +774,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>f45147a4-ea23-4111-b77d-fa4a15ecd8bf</t>
+          <t>در بیمار پس از سوختگی، کدام گزینه صحیح است؟</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -833,7 +833,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5f683396-97fb-422c-9fec-cb97370f8d28</t>
+          <t>کدام یک از موارد زیر درون سلولی هستند؟</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -879,7 +879,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>da6170ab-6a68-4a2c-bbf8-900eb0574402</t>
+          <t>دمای بحرانی برای نیتروژن مایع چیست؟</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>836fff5f-4d6b-46eb-9754-afc7165a0ad2</t>
+          <t>پروتکل spikes مربوط به کدام مورد است؟</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -981,7 +981,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>e6ac5271-14bf-4399-aa45-b758ed27a955</t>
+          <t>روش تصویربرداری انتخابی برای بررسی متاستاز در کل بدن کدام است؟</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1034,7 +1034,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>854c5b07-371d-4ea3-b93a-4531a8641e95</t>
+          <t>نئوپلازی داخل اپیتلیال دهانه رحم درجه iii بدون فعالیت کولپوسکوپی، درمان انتخابی چیست؟</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1102,7 +1102,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>18df918b-e9f0-4259-b8aa-bbfffa95e989</t>
+          <t>کدام یک از داروهای ضد سل زیر با مهار سنتز میکولیک اسید در مایکوباکتریوم عمل می‌کنند؟</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1153,7 +1153,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6129d5d7-dfeb-4265-847d-9cc2e71393c7</t>
+          <t>کدام یک از موارد زیر برای درمان ترومبوسیتوپنی ثانویه به درمان ضد سرطان استفاده می‌شود و به عنوان محرک پیش‌سازهای مگاکاریوسیتی شناخته می‌شود؟</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1201,7 +1201,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4d5a6758-4d2c-470d-a607-81b1f83ddf09</t>
+          <t>یک کودک ۴ ساله مشاهده می‌شود که با انگشتان خود پلک‌هایش را باز نگه می‌دارد و به طور دوره‌ای، به ویژه در عصرها، یکی از چشم‌هایش را می‌بند. او در بلع غذا مشکل دارد. معمولاً غمگین به نظر می‌رسد، اگرچه به اندازه کافی می‌خند. می‌تواند توپ را پرتاب کند و خوب می‌دود. کدام یک از گزینه‌های زیر احتمالاً منجر به تشخیص می‌شود؟</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1269,7 +1269,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>eea85ca4-d892-48a5-99c2-90ba29581479</t>
+          <t>ماده مورد استفاده برای استریلیزاسیون -</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1320,7 +1320,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>d92e085f-2ba7-492f-a16a-4501bc3bbb88</t>
+          <t>هیدروژن سولفید بر کدام کمپلکس سیتوکروم اکسیداز اثر می‌کند؟</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1372,7 +1372,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>d20c6544-aede-4195-b5d5-09200b7ab9ce</t>
+          <t>هذیان چیست؟</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1419,7 +1419,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>d655f73b-bd6c-4302-8736-1d9485c0f1a5</t>
+          <t>سوگیری برکشونی نوعی از کدام مورد است؟</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1463,7 +1463,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>95c7654d-7214-4748-a95a-a05f1e61d3d8</t>
+          <t>تمام آییودی‌ها هر ۴ تا ۵ سال یکبار تعویض می‌شوند به جز</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1517,7 +1517,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6a35d6ec-32eb-492e-8729-8aeb9927260a</t>
+          <t>شما در حال ارزیابی نتایج آزمایشگاهی یک بیمار مصرف کننده قرص های ضدبارداری خوراکی هستید. استفاده از قرص ضدبارداری کدام یک از موارد زیر را کاهش می‌دهد؟</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1574,7 +1574,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3eee9665-0901-480a-b9a7-fd3586685e53</t>
+          <t>سینوس های پارانازال توسط کدام اپیتلیوم پوشیده شده اند؟</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1622,7 +1622,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>79b0a639-66b3-4204-9fc8-fdfe4ecd07f6</t>
+          <t>کدام عامل فیبرینولیتیک، پلاسمینوژن متصل به فیبرین را به جای پلاسمینوژن در گردش، به طور انتخابی فعال می‌کند؟</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1672,7 +1672,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5b877e4e-7dab-4ad6-b020-af305a8d1803</t>
+          <t>روش کاسای در درمان کدام بیماری استفاده می‌شود؟</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1720,7 +1720,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>9952d165-3f34-4ba3-b475-06565210be17</t>
+          <t>کربیمازول باعث کدام یک از ناهنجاری های مادرزادی زیر می شود؟</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1777,7 +1777,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>a4b8a38a-fda9-4022-8ffc-54070932c821</t>
+          <t>همه موارد زیر رادیواپک هستند به جز یک مورد -</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1824,7 +1824,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>611f31ee-eb43-4a4b-b8d1-b708174a7f6d</t>
+          <t>برای مطالعه توالی کامل اسیدهای آمینه دو زنجیره پلی پپتیدی انسولین، جایزه نوبل به چه کسی اهدا شد؟</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1872,7 +1872,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>88b8a7f1-95d5-479a-b5e5-feafdac8e5e5</t>
+          <t>در مورد الکترورتینوگرام کدام گزینه صحیح است؟</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1934,7 +1934,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>fc5240b7-e342-413d-9712-889573ce09d3</t>
+          <t>سهم کارفرما در بیمه دولتی کارکنان</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1984,7 +1984,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>faf2437f-27a3-4479-b47b-5c6f4780fd82</t>
+          <t>ویژگی‌های مشخصه‌ی یک ضایعه در بخش جانبی بصل‌النخاع شامل همه موارد زیر به جز کدام است؟</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2042,7 +2042,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1665a2b5-201d-4c93-baa7-7de6f83a90ac</t>
+          <t>هپاتومگالی همراه با پالسیشن کبد نشان دهنده چیست؟</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2094,7 +2094,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>d41a207b-a226-4a5f-a6e4-972a5d5a9698</t>
+          <t>همه موارد زیر باعث سوءجذب می‌شوند به جز:</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2144,7 +2144,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>f14964c5-1d8d-4212-9521-0af298549509</t>
+          <t>در مورد کزاز همه موارد زیر صحیح است به جز -</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2196,7 +2196,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3954eed1-0c1b-4fed-a5d9-4d2f92c28221</t>
+          <t>یک مرد 35 ساله احساس می‌کند که به دلیل ابتلا به سرطان معده در حال مرگ است. تمام بررسی‌های رادیولوژیکی او خلاف این را ثابت می‌کنند. محتمل‌ترین تشخیص چیست؟</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2256,7 +2256,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>d96740c1-bd9d-4d6a-be9f-3c0ee58838aa</t>
+          <t>همه موارد زیر در سنگ مجرای صفراوی دیده می‌شوند به جز: مارس 2008</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2305,7 +2305,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>b88f2d01-ba55-4c2b-9749-33134f164239</t>
+          <t>ماده معدنی اصلی استخوان چیست؟</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2354,7 +2354,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ed111c08-2532-4e7c-ac67-d8cee9473352</t>
+          <t>داروی انتخابی برای اسهال دیابتی:</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2404,7 +2404,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5bab1ce7-a930-4d9c-9a35-5f0c04e5cb86</t>
+          <t>میزان روزانه تأمین آب که برای رفع تمام نیازهای خانگی شهری کافی در نظر گرفته می‌شود، چقدر است؟</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2455,7 +2455,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>90dfde3a-673f-4af3-9bc4-04f2071d09f5</t>
+          <t>کدام گزینه در مورد idsp نادرست است؟</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2509,7 +2509,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>d3b92e69-d67f-48cb-b93b-9a259ca8d0cb</t>
+          <t>یک زن باردار با سابقه ۳ بارداری و ۲ سقط در سه‌ماهه دوم، در هفته ۲۲ بارداری با قیفی‌شدن دهانه رحم مراجعه می‌کند. مناسب‌ترین اقدام کدام است؟</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2578,7 +2578,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>281b0ddc-e7d8-4b8f-857e-1e46ac6a2c8e</t>
+          <t>کدام مورد از موارد زیر برای پروبینگ و آبیاری (probing and irrigation) مناسب نیست؟</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2628,7 +2628,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>b960cd99-5053-4a4c-9684-cecc905b6fa3</t>
+          <t>شیوع یک بیماری -</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2680,7 +2680,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2e1bb215-3f3d-417f-9336-2dd3217394b1</t>
+          <t>نسبت حمایت بالقوه (psr) به این صورت تعریف می‌شود:</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2732,7 +2732,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>c7bc0d86-378d-4588-9a70-13c0b9ef1121</t>
+          <t>سفتی عضلات در جنین پس از رسیدن به چه سنی ایجاد می‌شود؟</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2777,7 +2777,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>9fb64b5e-19a6-4754-b5cd-cd3801040ef5</t>
+          <t>لگن مرد و زن توسط کدام مورد از هم تفکیک می‌شوند؟</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2831,7 +2831,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>573e28f5-533a-4280-9b36-585065eeaf14</t>
+          <t>کدام یک از موارد زیر در کارسینوم پستان دیده می‌شود؟</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2880,7 +2880,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>27df1fa5-f463-4c92-ac54-d4ac8b03da6d</t>
+          <t>اُهوپنه (ohopnea) در نارسایی قلبی به دلیل چه چیزی ایجاد می‌شود؟</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2934,7 +2934,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5df5cc5a-9fd6-4eaa-9702-d5415ce65a51</t>
+          <t>کدام یک از بیماری های پریودنتال زیر با اختلال هماتولوژیک مرتبط است؟</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2984,7 +2984,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>43eebf52-7252-4288-a062-f2d643e10d68</t>
+          <t>سندرم مادرزادی qt طولانی در نوزادان با کدام یک از موارد زیر همراه است؟</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3035,7 +3035,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>98c9c1dc-44fa-47ee-9f6e-e1d0604e93c5</t>
+          <t>اجسام پاسموموما در همه موارد زیر دیده می‌شوند به جز -</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3084,7 +3084,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>8007ab72-0fe7-4ec4-9840-20f47cf32752</t>
+          <t>بیضه نزول نکرده یک طرفه ایده آل ترین زمان برای عمل جراحی در چه سنی است؟</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3132,7 +3132,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>60c47f03-e07f-45b1-afbc-be51daf0e7e4</t>
+          <t>تمامی عبارات زیر در مورد هپارین صحیح هستند، به جز:</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3183,7 +3183,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>f10cfa35-1884-4319-ba6d-d586070ef1f5</t>
+          <t>نئوواسکولاریزاسیون کوروئید در تمام موارد زیر دیده می‌شود، به جز:</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3233,7 +3233,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>9eaf5445-0c44-4273-a0d8-758aabbd9b34</t>
+          <t>کدام یک از تومورهای کبدی زیر همیشه نیاز به جراحی دارند؟</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3279,7 +3279,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>96ef6d61-2d47-4f24-bafd-735e2c3f9f44</t>
+          <t>فرم لاروی در مدفوع در کدام یک یافت می‌شود؟</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3327,7 +3327,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>762c7c54-bbe9-4fa6-af85-ad04fbdf72bb</t>
+          <t>سوراخ چانه ای در نزدیکی کدام قسمت قرار دارد؟</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3374,7 +3374,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>5d57fe21-f8cc-4b40-8a9e-047d983858e5</t>
+          <t>سندرم هورنر با همه موارد زیر به جز کدامیک مشخص می‌شود؟</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3424,7 +3424,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>41fbf0b7-ba70-4de3-bc7a-e5adf857cff3</t>
+          <t>تریسموس در طول بی حسی بلوک ناشی از چیست؟</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3477,7 +3477,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1dc49299-95d9-4199-9be0-05b25b0cfbd4</t>
+          <t>ctev چیست؟</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3537,7 +3537,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ccefb71d-ac30-46e2-91fb-42446c63de1f</t>
+          <t>شایع‌ترین علت مرگ در ملانوم بدخیم ناشی از چیست؟</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3585,7 +3585,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ce09a8e9-1ae0-4261-9989-a1449623823e</t>
+          <t>جزء اصلی سورفکتانت توسط چه چیزی تشکیل شده است؟</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3641,7 +3641,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>b3545eaf-c776-4ad3-b4c2-fb105b632a82</t>
+          <t>تمام موارد زیر در مورد پاپیل ادم صحیح است به جز-</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3691,7 +3691,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>15e0e81b-05a0-4c3b-a5ac-728d4988507b</t>
+          <t>شاخص گلیسمی گلوکز چقدر است؟</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3744,7 +3744,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>b4a3008d-4e9d-48f8-ad65-1b10f3b387e3</t>
+          <t>همه موارد زیر در مورد سمینوما صحیح هستند به جز</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3796,7 +3796,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>78615509-2833-4d67-940a-b2414a4075dd</t>
+          <t>در مورد "پاپول های گاتورن" مشاهده شده در درماتومیوزیت همه موارد زیر صحیح است به جز:</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3846,7 +3846,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>3868d40d-2844-4215-b142-f5ce708c490e</t>
+          <t>گره سینوسی دهلیزی (sa node) به عنوان ضربان ساز قلب عمل می کند زیرا:</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3894,7 +3894,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ea5b4bb2-8092-43cf-ab8d-a8a0a39d2152</t>
+          <t>چه چیزی باعث شبه اگزوفتالموس می‌شود؟</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3955,7 +3955,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>afb77613-5336-4ce8-b1e3-691fec88f294</t>
+          <t>استاندارد طلایی برای تشخیص بیماری التهابی لگن (pid) چیست؟</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4009,7 +4009,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>7139e69f-3f13-4fd3-b298-770a08be29bc</t>
+          <t>در لیومیوم رحم کدام یک از تغییرات زیر به طور شایع رخ نمی دهد؟</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -4065,7 +4065,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>debc0589-03fa-4380-9deb-50e0ec51a654</t>
+          <t>درصد ابتلای کودک به hiv از مادر مبتلا به hiv مثبت چقدر است؟</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4112,7 +4112,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>7af7b0ef-df5e-4fd7-9266-a316a1d254fc</t>
+          <t>کدام یک از موارد زیر بر ترشح رنین تأثیر نمی‌گذارد؟</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4160,7 +4160,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>b334150b-7163-4f53-8105-dd807877aa07</t>
+          <t>بیماری گوچر به دلیل کمبود کدام آنزیم ایجاد می‌شود؟</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4207,7 +4207,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2163f0c1-cbf8-48c6-bd90-225652c12fa4</t>
+          <t>یک نوزاد ۸ ماهه با تنگی نفس شدید در هنگام فعالیت، چماقی شدن انگشتان و صلبیه‌های آبی رنگ مراجعه می‌کند. تشخیص رادیوگرافی قفسه سینه چیست؟</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4265,7 +4265,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>96452745-c2cb-4d44-987a-f531c6915c6e</t>
+          <t>مصرف طولانی مدت آنتی‌بیوتیک‌ها در کودکان می‌تواند منجر به چه شود؟</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4313,7 +4313,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>3ac01eca-0134-42aa-a838-fad9f9177fdd</t>
+          <t>هنگامی که فردی در اتاقی با دمای 21 درجه سانتیگراد و رطوبت 80% در حال استراحت است، بیشترین میزان گرمای از دست رفته از بدن از طریق کدام روش است؟</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4364,7 +4364,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>df1c997e-b9e5-4218-8c2f-38297f96a128</t>
+          <t>سن بسته شدن همبند استخوانی اسفنواُکسیپیتال در چه سنی است؟</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4409,7 +4409,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>7dd371f0-9a7b-478a-a7cf-d3d3344682e7</t>
+          <t>کدام یک از موارد زیر شایع‌ترین تومور مغزی است؟</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4464,7 +4464,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>0541a961-a67c-4eac-9733-d0c4829c9035</t>
+          <t>بر اساس برنامه ملی ریشه‌کنی جذام، ریشه‌کنی جذام به عنوان شیوع جذام کمتر یا مساوی ______ تعریف می‌شود.</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4512,7 +4512,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>5277a70b-4f30-4333-b6db-d4c7f57a13a4</t>
+          <t>میزان مورد نیاز ویتامین b12 در روز برای بزرگسالان چقدر است؟</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4562,7 +4562,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>22ef3d06-ee2c-4446-b483-8f1165e89c0b</t>
+          <t>کم خونی در بیماری ویلسون به کدام یک از دلایل زیر رخ می‌دهد؟</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4609,7 +4609,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>90834021-b66e-4a04-b605-2ad359cde7d0</t>
+          <t>یک مرد جوان با از دست دادن بینایی بدون درد و فشار داخل چشمی 60 میلی‌متر جیوه مراجعه می‌کند. کدام یک از موارد زیر محتمل‌ترین تشخیص است؟</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4661,7 +4661,11 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>6ffd899a-4d4b-4216-b8ac-6e16a4b0daa1</t>
+          <t>میوکاردیت توسط کدام یک از موارد زیر ایجاد می‌شود؟  
+الف) سیاه سرفه  
+ب) سرخک  
+ج) دیفتری  
+د) نیش عقرب</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4720,7 +4724,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>abca7235-e782-4bfc-8264-5ab0f2e2113d</t>
+          <t>کدام یک از گزینه‌های زیر جزء سلول‌های غیر تقسیم‌شونده محسوب نمی‌شود؟</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4769,7 +4773,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>c17035e5-4a81-412e-b200-74b95c502449</t>
+          <t>با توجه به برنامه‌های شلوغ زندگی در جامعه مدرن، حداقل مدت زمان پذیرفته‌شده برای همخوابگی جنسی بدون فرزندآوری که یک زوج نابارور محسوب می‌شوند، چقدر است؟</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4822,7 +4826,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>29f8631c-c7a8-42c8-87c9-df0ea586b117</t>
+          <t>ترجیح استفاده از یک دست (چپ‌دستی یا راست‌دستی) در چه سنی شکل می‌گیرد؟</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4871,7 +4875,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>9513fc4d-d89c-41ea-8224-c327f98bda77</t>
+          <t>باریم فالو ترو برای چه قسمتی استفاده می‌شود؟</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4915,7 +4919,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>664f1a29-223a-4740-b84a-3fae2e0c410f</t>
+          <t>بیماری جیپ چیست؟</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4972,7 +4976,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>4ecadc8d-3cc3-402d-a0e1-bfb6c3ea0cff</t>
+          <t>یک کارآموز غلظت o2 در خون را به میزان 0.0025 میلی‌لیتر بر میلی‌لیتر خون محاسبه کرد. با در نظر گرفتن فشار اتمسفر به عنوان 760 میلی‌متر جیوه، تقریباً چه مقدار فشار o2 می‌تواند در خون وجود داشته باشد؟</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -5027,7 +5031,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>d190fe02-76e4-49b4-bbf5-bc3cfe129ad2</t>
+          <t>افزایش قد در سال اول زندگی چقدر است؟</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -5073,7 +5077,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>7fe74fa4-33a1-4097-aecf-8fb19683859d</t>
+          <t>شایع ترین بدخیمی که در زنان به ستون فقرات متاستاز می دهد کدام است؟</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -5131,7 +5135,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ea2d0a08-5f7f-479b-9138-ea6f2db14a7c</t>
+          <t>هیپرپلازی خوش خیم پروستات ابتدا در کدام ناحیه ایجاد می‌شود؟</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -5177,7 +5181,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2703c371-ef26-4934-bf3c-f859915fa6f0</t>
+          <t>تمام معیارهای زیر برای تعریف آسفیکسی پری ناتال ضروری هستند به جز کدام یک؟</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -5230,7 +5234,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>6d4eabfd-49d4-4884-a056-54b65910c5d6</t>
+          <t>کدام یک از داروهای زیر سریع‌ترین اثر شیزونت‌کشی را دارد؟</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -5276,7 +5280,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>f29703bf-cb42-4801-b62b-f93d588db024</t>
+          <t>مرگ و میر مادران در کدام دوره بیشتر است؟</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -5321,7 +5325,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ea3e2238-654f-4bd4-9ddf-aa2d3eea5e03</t>
+          <t>در پمفیگوس ولگاریس، اسمیر تزانک چه چیزی را نشان می‌دهد؟</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -5382,7 +5386,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>db60ec6a-41be-4d27-892c-fede22fb1fd4</t>
+          <t>شایع‌ترین علت عفونت hiv در نوزادان چیست؟</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -5454,7 +5458,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>814347ea-9017-4a36-907e-81402c13023a</t>
+          <t>تکنیک نالگوندا در چه موردی استفاده می‌شود؟</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -5502,7 +5506,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>5b516197-75e3-4761-b524-45f8664dd22d</t>
+          <t>پوشش اپیتلیالی بطن‌های مغز چیست؟</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -5550,7 +5554,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>8ed8ad41-652c-4688-99cb-534741d18a0a</t>
+          <t>کدام ناحیه برودمن، ناحیه ورنیکه گفتار را تشکیل می‌دهد؟</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -5598,7 +5602,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ce82c0c7-547f-4966-961b-661d5268ee46</t>
+          <t>اینوئوگرام در نوزاد تازه متولد شده چه زمانی باید انجام شود؟</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5650,7 +5654,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>524812c4-9ac3-4f42-a927-8e28f19c1fda</t>
+          <t>کدام گزینه در مورد ماموگرافی صحیح است؟</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -5696,7 +5700,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>d1c938c9-e744-43d7-b3ad-726964680438</t>
+          <t>کدام یک از عبارات زیر در مورد سندرم همولیتیک اورمیک صحیح نیست؟</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -5754,7 +5758,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>8307f545-8e49-4a67-88e7-e36384230195</t>
+          <t>مقدار طبیعی pcv چقدر است؟</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -5809,7 +5813,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>97bccc99-7bc6-452b-aea0-7772f39f9d22</t>
+          <t>دوز بارگذاری دارو عمدتاً به چه چیزی بستگی دارد؟</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -5865,7 +5869,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>8ccc554a-3ac5-41db-a2ae-df75e4dc40b3</t>
+          <t>عبارت‌های زیر در مورد مننژیت مننگوکوکی صحیح هستند به جز -</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -5914,7 +5918,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>87a51c51-9de7-4626-b5d9-fb677abeadc2</t>
+          <t>شایع‌ترین علت التهاب ملتحمه نوزادی چیست؟</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -5962,7 +5966,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>604de3ae-1911-483e-b008-8cdd156ad80f</t>
+          <t>بارزترین و شایع‌ترین ویژگی بیماری مزمن روماتیسمی قلب، ایجاد چه چیزی است؟</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -6019,7 +6023,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>fa9bc192-9ecf-4b36-8da2-fc984cc9348a</t>
+          <t>اصطلاح کاتاتونیا توسط چه کسی ابداع شده است؟</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -6076,7 +6080,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>195ca31f-3312-42c2-8240-7ceb79600fb3</t>
+          <t>علت بیماری زرودرما پیگمنتوزوم چیست؟</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -6125,7 +6129,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>b355a25b-99c9-4a47-815e-205a2db6ea02</t>
+          <t>در کدام یک از مکان‌های زیر کم‌ترین احتمال را برای یافتن ضایعات آترواسکلروتیک قابل توجه در بیمار با عوامل خطر سیگار کشیدن، فشار خون بالا، دیابت شیرین و سطح کلسترول سرم 280 میلی‌گرم در دسی‌لیتر دارید؟</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -6179,7 +6183,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>87a60fac-f8c4-40a2-b4ea-546e259c63a9</t>
+          <t>تمامی انواع سلول های زیر حاوی آنزیم تلومراز هستند که طول تلومرها را در انتهای کروموزوم ها حفظ می کند، به جز:</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -6228,7 +6232,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>b8e1f7a8-2436-4483-a89c-5596094b7b4e</t>
+          <t>گزینه مناسب برای درمان پرولاپس در زنان نولی پار (بدون زایمان) کدام است؟</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -6286,7 +6290,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>e467135e-7081-49dd-a78e-0964056692f0</t>
+          <t>شایع‌ترین فلج عصب جمجمه‌ای در بیماری تابس دورسالیس کدام است؟</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -6330,7 +6334,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>4bc8d4d4-010c-4000-838d-674cb4541a4a</t>
+          <t>اولین یافته چشمی در نوروم آکوستیک کدام است؟ (pgi 2000; mp 2000; kerala 2004; delhi 2006)</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -6381,7 +6385,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>6b82f96f-066f-4092-9cd5-48a3a8c3b10c</t>
+          <t>مکانیسم دفاعی بالغ در کدام مورد دیده می‌شود؟</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -6432,7 +6436,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>b330ab00-530d-4925-aeae-671783a3b994</t>
+          <t>بیماران مبتلا به کم خونی داسی شکل می‌توانند به همه موارد زیر مبتلا شوند به جز</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -6479,7 +6483,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>8d5a35c3-b699-40b3-8f10-8e3c9f71578b</t>
+          <t>نشانگرهای کلاسیک برای بیماری هوچکین-</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -6538,7 +6542,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>958e045b-ee50-4e9d-beb6-c32ebe65674b</t>
+          <t>کدام گزینه در مورد هلیکوباکتر پیلوری صحیح است؟</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -6597,7 +6601,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>56895191-f3ab-4e86-ae2e-74b43b5b794f</t>
+          <t>تصویر رادیوگرافی مچ دست که نمای حباب صابون در ناحیه اپی فیز را نشان می‌دهد. تشخیص:</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -6651,7 +6655,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>62bedbd9-7f28-4e00-8e18-9b71425e6552</t>
+          <t>کدام یک از موارد زیر بیشتر مستعد بی حسی موضعی است؟ (یا) حساسیت به گرما در پالپیت مزمن نشان دهنده تحریک کدام رشته‌ها است؟ (یا) درد تابشی از پالپ توسط کدام‌ها منتقل می‌شود؟ (یا) حساسیت به بی‌حسی موضعی در کدام‌یک بیشتر است؟</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -6710,7 +6714,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>826f055f-af25-4015-a617-b5b55d8ee5e5</t>
+          <t>عمل فاسانلا سروان به طور خاص در کدام مورد نشان داده شده است؟</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -6760,7 +6764,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>c0ccdeaa-b220-40be-a5ea-5e6b7b3469da</t>
+          <t>خشکی چشم (xerophthalmia) ناشی از چیست؟  
+الف) کمبود ویتامین c  
+ب) برداشتن بخشی از روده کوچک  
+ج) فیبروز کیستیک  
+د) مصرف مزمن الکل  
+ه) گلومرولونفریت</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -6823,7 +6832,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>21f2d1ae-c37f-4c36-bfc4-6ff13bb9adfe</t>
+          <t>کدام گروه از پروتئین‌های زیر در تا شدن سایر پروتئین‌ها کمک می‌کنند؟</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -6871,7 +6880,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>b20920e2-b16b-4aa0-9896-c0a96714580f</t>
+          <t>کدام یک از موارد زیر بیشترین نقش را در پاتوژنز آرتریت روماتوئید ایفا می‌کند؟</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -6924,7 +6933,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>df4e8704-bd55-463c-9907-a4f09f8531c9</t>
+          <t>کدام یک از ساختارهای زیر در صفحه ترانس پیلوریک یافت نمی‌شود؟</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -6972,7 +6981,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>fd9e5665-6e0a-44ce-8357-0195252ddcc1</t>
+          <t>کودکی که فقط با شیر گاو تغذیه می‌شود، دچار کمبود چه ماده‌ای می‌شود؟</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -7019,7 +7028,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>13a7dc6a-7345-4f84-8fcc-050adae16972</t>
+          <t>گانگلیون سمپاتیک از چه چیزی تشکیل می‌شود؟</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -7068,7 +7077,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>47b0658d-58b3-4833-876c-500012b2737d</t>
+          <t>غدد بزاقی کوچک در زیرمخاط سراسر مخاط دهان وجود دارند به جز در</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -7117,7 +7126,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>e89fd581-00e8-4a25-8769-da423bdae8b8</t>
+          <t>nadph در کدام مورد استفاده می‌شود؟</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -7168,7 +7177,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>836fff5f-4d6b-46eb-9754-afc7165a0ad2</t>
+          <t>قرص ضد آندروژن حاوی کدام ماده است؟</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -7220,7 +7229,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>e6ac5271-14bf-4399-aa45-b758ed27a955</t>
+          <t>تیازیدها باعث ایجاد چه شرایطی می‌شوند؟</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -7272,7 +7281,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>18df918b-e9f0-4259-b8aa-bbfffa95e989</t>
+          <t>یک دختر با علائم فارنژیت مراجعه کرده است. فارنژیت همولیتیک گروه a ناشی از چیست؟</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -7321,7 +7330,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>6129d5d7-dfeb-4265-847d-9cc2e71393c7</t>
+          <t>کدام گزینه در مورد سندرم ورودی توراسیک نادرست است؟</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -7368,7 +7377,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>eea85ca4-d892-48a5-99c2-90ba29581479</t>
+          <t>چه کسی کوکائین را در روانپزشکی معرفی کرد؟</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -7423,7 +7432,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>46ec4e9b-fdb0-4693-b79f-8dbfdc1160ef</t>
+          <t>سندرم کاپلان در کدام یک از موارد زیر مشاهده می‌شود؟</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -7471,7 +7480,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>d20c6544-aede-4195-b5d5-09200b7ab9ce</t>
+          <t>کدام سیاهرگ مستقیماً به ivc تخلیه می‌شود؟</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -7520,7 +7529,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>a11b4c42-e681-4156-b787-035c504bfe3e</t>
+          <t>در تمامی شرایط زیر باید پروپیلکسی ضد-d انجام شود به جز:</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -7570,7 +7579,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>6a35d6ec-32eb-492e-8729-8aeb9927260a</t>
+          <t>کدام یک از موارد زیر می‌تواند به عنوان آزمایش پراکسیداسیون لیپید استفاده شود؟</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -7620,7 +7629,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>3eee9665-0901-480a-b9a7-fd3586685e53</t>
+          <t>همه موارد زیر ممکن است در سندرم نونان رخ دهد به جز -</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -7673,7 +7682,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>79b0a639-66b3-4204-9fc8-fdfe4ecd07f6</t>
+          <t>همه موارد زیر از ویژگی‌های دلیریوم هستند به جز</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -7723,7 +7732,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>5b877e4e-7dab-4ad6-b020-af305a8d1803</t>
+          <t>سن قانونی که در آن جنین قادر به حیات مستقل است:</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -7773,7 +7782,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>9952d165-3f34-4ba3-b475-06565210be17</t>
+          <t>التهاب گوشه لب (آنگولار کیلوزیس) اغلب با کمبود کدام ویتامین همراه است؟</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -7822,7 +7831,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>f499022f-a7d2-4ffe-88e9-aebfaceaff37</t>
+          <t>عملکرد اصلی هموگلوبین چیست؟</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -7882,7 +7891,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>88b8a7f1-95d5-479a-b5e5-feafdac8e5e5</t>
+          <t>کدام یک از عبارات زیر در مورد زجاجیه نادرست است؟</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -7940,7 +7949,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>fc5240b7-e342-413d-9712-889573ce09d3</t>
+          <t>کدام گزینه در مورد تظاهر اولیه سل (t.b) صحیح است؟</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -7991,7 +8000,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>faf2437f-27a3-4479-b47b-5c6f4780fd82</t>
+          <t>مزیت استفاده از رزین شیمیایی فعال برای ترمیم چیست؟</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -8048,7 +8057,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>1665a2b5-201d-4c93-baa7-7de6f83a90ac</t>
+          <t>در صورتی که در آینده نیاز به جایگزینی دندان‌های مشکوک فک پایین باشد، اتصال دهنده اصلی ترجیحی کدام است؟</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -8100,7 +8109,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ac749055-17a2-41c9-a472-56a3f68085cd</t>
+          <t>خطوط "جستجو" برای تشخیص خط شکستگی در نمای رادیوگرافی اکسیپیتومنتال (پشت سری-چانهای) شکستگی اسکلت میانی صورت توسط چه کسانی توصیف شده است؟</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -8145,7 +8154,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>d41a207b-a226-4a5f-a6e4-972a5d5a9698</t>
+          <t>تعریف عود بیماری در سل چیست؟</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -8203,7 +8212,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>737302f0-c062-4d6f-8152-6e389968619a</t>
+          <t>ریشه عصبی برای درماتوم تأمین کننده انگشت شست و انگشت اشاره:</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -8257,7 +8266,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>3954eed1-0c1b-4fed-a5d9-4d2f92c28221</t>
+          <t>پای راکر باتوم (کف پای صاف و محدب) ناشی از کدام مورد است؟</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -8310,7 +8319,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>d96740c1-bd9d-4d6a-be9f-3c0ee58838aa</t>
+          <t>کدام واکسن در مأموریت ایندرادهانوش گنجانده نشده است؟</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -8357,7 +8366,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>b88f2d01-ba55-4c2b-9749-33134f164239</t>
+          <t>جایزه نوبل اخیر برای چه چیزی اهدا شده است؟</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -8405,7 +8414,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ed111c08-2532-4e7c-ac67-d8cee9473352</t>
+          <t>تمامی عبارات زیر در مورد واکسن dpt صحیح هستند به جز</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -8462,7 +8471,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>5bab1ce7-a930-4d9c-9a35-5f0c04e5cb86</t>
+          <t>کشت استرپتوکوکوس ویریدانس شبیه کدام است؟</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -8516,7 +8525,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>90dfde3a-673f-4af3-9bc4-04f2071d09f5</t>
+          <t>تست وایف در تشخیص کدام مورد مفید است؟</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -8566,7 +8575,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>d3b92e69-d67f-48cb-b93b-9a259ca8d0cb</t>
+          <t>اندام‌های اتولیت مربوط به کدام عملکرد هستند؟</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -8618,7 +8627,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>520e929c-7381-4524-9425-db29dde52515</t>
+          <t>از دست دادن زودهنگام کنترل مثانه در کدام یک از موارد زیر مشاهده می‌شود؟</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -8673,7 +8682,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>13780ba3-12ad-4419-9efa-aa5b3905bc0b</t>
+          <t>کدام یک از کرم‌های لوله‌ای زیر عمدتاً در سکوم و آپاندیس ساکن است؟</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -8720,7 +8729,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>3a8719ca-df1c-4168-995f-61a56b21b31c</t>
+          <t>گانگلیون پتریگوپالاتین از نظر عملکردی به کدام عصب متصل است؟</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -8778,7 +8787,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>30e098ff-d0bf-427f-8f1f-cb94441d2df0</t>
+          <t>شایع‌ترین محل خونریزی داخل جمجمه‌ای ناشی از فشار خون بالا کدام است؟</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -8828,7 +8837,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2e1bb215-3f3d-417f-9336-2dd3217394b1</t>
+          <t>اهمیت پزشکی-قانونی یافته زیر که در چشم مشاهده می‌شود چیست؟</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -8879,7 +8888,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>c7bc0d86-378d-4588-9a70-13c0b9ef1121</t>
+          <t>همه موارد زیر در مورد آزمون t دانشجویی صحیح هستند، به جز کدام یک؟</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -8929,7 +8938,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>f93d33d4-2271-4e9d-8ef5-e1003cf45c96</t>
+          <t>نمای اکلوزالی اولین پرمولار فک بالا چیست؟</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -8987,7 +8996,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>82745eef-20c7-4e10-9b2b-ff016361ba96</t>
+          <t>در مورد مول هیداتیفرم، تمام موارد زیر از عوامل پرخطر برای ایجاد کوریوکارسینوما هستند، به جز:</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -9052,7 +9061,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>f1566f4b-b795-431a-98f9-3b397e063415</t>
+          <t>اجسام نگری مشخصه کدام بیماری هستند؟</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -9099,7 +9108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>43eebf52-7252-4288-a062-f2d643e10d68</t>
+          <t>حلقه عمیق اینگوینال نقص در کدام ساختار است؟</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -9149,7 +9158,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>f10cfa35-1884-4319-ba6d-d586070ef1f5</t>
+          <t>زائده کوراکوئید چه نوع اپیفیز است؟</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -9198,7 +9207,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>9eaf5445-0c44-4273-a0d8-758aabbd9b34</t>
+          <t>کدام یک از داروهای زیر بر علیه hiv-2 عمل نمی‌کند؟</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -9254,7 +9263,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>7a7f0001-42e6-4aae-ace6-ba46fbae2d1c</t>
+          <t>تمام داروهای زیر باعث میدریاز (گشاد شدن مردمک) می‌شوند به جز: مارس 2012</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -9301,7 +9310,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>96ef6d61-2d47-4f24-bafd-735e2c3f9f44</t>
+          <t>همه موارد زیر به جز یکی متعلق به سیستم فشار متوسط دستگاه بیهوشی هستند</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -9350,7 +9359,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>762c7c54-bbe9-4fa6-af85-ad04fbdf72bb</t>
+          <t>شایع‌ترین محل متاستاز کدام است؟</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -9397,7 +9406,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>5d57fe21-f8cc-4b40-8a9e-047d983858e5</t>
+          <t>عوارض متابولیک در نارسایی مزمن کلیه شامل همه موارد زیر است به جز:</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -9453,7 +9462,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>1dc49299-95d9-4199-9be0-05b25b0cfbd4</t>
+          <t>کدام یک از موارد زیر مهارکننده بتا لاکتاماز نیست؟</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -9502,7 +9511,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>ccefb71d-ac30-46e2-91fb-42446c63de1f</t>
+          <t>کاهش میل ترکیبی hb به o2 در خون با کاهش ph:</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -9559,7 +9568,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>84fefccb-ee9a-476d-87a7-8e7b7770fe79</t>
+          <t>یک نمونه آسپیره زجاجیه در شرایط اضطراری در ساعت 9 شب جمع‌آوری شده است. چه توصیه‌ای به کارکنان شیفت در مورد نگهداری نمونه در طول شب دارید؟</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -9615,7 +9624,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>ce09a8e9-1ae0-4261-9989-a1449623823e</t>
+          <t>کدام یک از موارد زیر معیارهای اصلی نادا برای تشخیص بالینی بیماری مادرزادی قلب هستند؟</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -9670,7 +9679,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>15e0e81b-05a0-4c3b-a5ac-728d4988507b</t>
+          <t>یک مرد 30 ساله از 2 ماه پیش مشکوک است که همسرش با رئیس او رابطه نامشروع دارد. او فکر می‌کند دوستش نیز از خارج از کشور درگیر است و از نظر فنی حمایت می‌کند. او فکر می‌کند مردم در مورد او بدگویی می‌کنند. دوستانش سعی کردند او را متقاعد کنند اما او اصلاً قانع نشده است. به غیر از این، او طبیعی است و هیچ اختلال فکری یا رفتار نامناسب دیگری ندارد. محتمل‌ترین تشخیص چیست؟</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -9736,7 +9745,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>152ffd17-a80d-4a45-9a48-400bd100c65d</t>
+          <t>در یک کودک مبتلا به آسم ناشی از ورزش، کدام مورد انجام می‌شود؟</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -9792,7 +9801,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>b4a3008d-4e9d-48f8-ad65-1b10f3b387e3</t>
+          <t>علت کاهش دیررس ضربان قلب جنین در تست nst چیست؟</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -9852,7 +9861,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>78615509-2833-4d67-940a-b2414a4075dd</t>
+          <t>ارگان کورتی اندام حسی کدام مورد است؟</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -9894,7 +9903,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>3868d40d-2844-4215-b142-f5ce708c490e</t>
+          <t>ژن یا پروتئین کمبود در سندرم مارفان چیست؟</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -9947,7 +9956,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>ea5b4bb2-8092-43cf-ab8d-a8a0a39d2152</t>
+          <t>کدام یک از واکسن‌های زیر کشته شده است؟</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -9994,7 +10003,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>afb77613-5336-4ce8-b1e3-691fec88f294</t>
+          <t>در بررسی پس از مرگ، متاستاز معمولاً در کدام اندام یافت می‌شود -</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -10044,7 +10053,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>d0526bb2-64f2-49dc-bdb9-34044b17747a</t>
+          <t>کدام نقطه در تاریخچه طبیعی بیماری زیر نشان‌دهنده شروع علائم است؟</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -10093,7 +10102,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>7139e69f-3f13-4fd3-b298-770a08be29bc</t>
+          <t>شایع‌ترین علت آبسه پارافارنژیال چیست؟</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -10144,7 +10153,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>debc0589-03fa-4380-9deb-50e0ec51a654</t>
+          <t>درصد ریشه دیستال با دو کانال ریشه در مولرهای فک پایین</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -10216,7 +10225,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>c71bfaa9-3afc-4bac-86fe-31c7de98eec4</t>
+          <t>میزان مصرف توصیه‌شده روزانه (rda) رتینول در دوران بارداری چقدر است؟</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -10271,7 +10280,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>b334150b-7163-4f53-8105-dd807877aa07</t>
+          <t>همه موارد زیر در هایپرکالمی استفاده می‌شوند به جز</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -10318,7 +10327,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>df1c997e-b9e5-4218-8c2f-38297f96a128</t>
+          <t>یک مرد 60 ساله پس از یک حادثه با رگ‌های گردن متورم، رنگ‌پریدگی و نبض سریع به بخش اورژانس مراجعه می‌کند. صدای قلب او خفه شده است. تشخیص احتمالی چیست؟</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -10373,7 +10382,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>5b510738-48fa-45d0-bd50-161b86062ded</t>
+          <t>تصویر ivp یک مرد مسن 75 ساله در زیر نشان داده شده است. تشخیص چیست؟</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -10434,7 +10443,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>7dd371f0-9a7b-478a-a7cf-d3d3344682e7</t>
+          <t>در gobi، o مخفف چیست؟</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -10488,7 +10497,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>5277a70b-4f30-4333-b6db-d4c7f57a13a4</t>
+          <t>یک بیمار زن با پدیده رینود در بخش اورژانس مراجعه کرده است. تمامی شرایط بالینی زیر پدیده رینود را نشان می‌دهند، به جز:</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -10536,7 +10545,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>22ef3d06-ee2c-4446-b483-8f1165e89c0b</t>
+          <t>اتاقک قدامی کم عمق در کدام مورد مشاهده می‌شود؟</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -10578,7 +10587,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>90834021-b66e-4a04-b605-2ad359cde7d0</t>
+          <t>کرتی، یک زن ۵۶ ساله، از درد در ناحیه شکم شکایت دارد و سونوگرافی یک توده ۴ سانتی متری دوطرفه در تخمدان با عروق خونی افزایش یافته را نشان می‌دهد. خط بعدی مدیریت چیست؟</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -10642,7 +10651,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>6ffd899a-4d4b-4216-b8ac-6e16a4b0daa1</t>
+          <t>فشردگی بند ناف منجر به کدام مورد می‌شود؟</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -10696,7 +10705,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>29f8631c-c7a8-42c8-87c9-df0ea586b117</t>
+          <t>نتیجه منفی تست رینه در کدام مورد مشاهده می‌شود؟</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -10743,7 +10752,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>9513fc4d-d89c-41ea-8224-c327f98bda77</t>
+          <t>در دستگاه گوارش، قلیایی‌ترین مایع توسط ________ ترشح می‌شود.</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -10793,7 +10802,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ba3c216c-af0d-402d-8c81-2f686f79a706</t>
+          <t>در برنامه ملی اصلاح شده کنترل سل، ویژگی‌های اصلی برای دستیابی به چه مواردی است؟</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -10851,7 +10860,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>3d9a93c8-0bb0-4c21-b2f8-8b738275d05c</t>
+          <t>افزایش طبیعی طول در یک نوزاد ترم کامل در 6 ماه اول زندگی چقدر است؟</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -10897,7 +10906,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>664f1a29-223a-4740-b84a-3fae2e0c410f</t>
+          <t>کدام یک از موارد زیر از استراتژی‌های اصلی rch-i1 محسوب نمی‌شود؟</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -10949,7 +10958,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>30e70fc4-942f-469a-93e2-008e4832abbf</t>
+          <t>نقطه‌ای که نسبت نفوذپذیری پتاسیم به سدیم (pk/pna) در بیشترین مقدار خود است.</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -11009,7 +11018,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>4ecadc8d-3cc3-402d-a0e1-bfb6c3ea0cff</t>
+          <t>بلوک کننده فاز i کدام است؟</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -11058,7 +11067,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>d091d390-cb34-4b71-b31b-0c82784c8a05</t>
+          <t>کدام یک از موارد زیر یک عامل اسپرم کش است؟</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -11105,7 +11114,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>f45fead1-36e2-4aac-833d-ff1ca0408595</t>
+          <t>لیگامان استیلوهویید از کدام بخش مشتق می‌شود؟</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -11151,7 +11160,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>7fe74fa4-33a1-4097-aecf-8fb19683859d</t>
+          <t>واکسن پلی ساکارید تیفوئید vi معمولاً در کودکان بالای چه سنی تجویز می‌شود؟</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -11197,7 +11206,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>ea2d0a08-5f7f-479b-9138-ea6f2db14a7c</t>
+          <t>کدام یک از موارد زیر یک عامل پاراسمپاتولیتیک است؟</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -11247,7 +11256,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>f29703bf-cb42-4801-b62b-f93d588db024</t>
+          <t>مطالعه گرند رپیدز و ماسکگون بر اساس کدام مورد است؟</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -11297,7 +11306,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>f6dea44b-fd89-4db3-84c2-d2500a2a59b0</t>
+          <t>آنزیم محدودکننده سرعت در بیوسنتز کاتکول آمین ها کدام است؟</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -11356,7 +11365,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>db60ec6a-41be-4d27-892c-fede22fb1fd4</t>
+          <t>کدام یک از مواد قالب گیری زیر سفت و غیرقابل انعطاف است؟</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -11421,7 +11430,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>814347ea-9017-4a36-907e-81402c13023a</t>
+          <t>تست برای تشخیص سفتی نوار ایلیوتیبیال چیست؟</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -11468,7 +11477,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>76b0284c-a6b3-4866-a4d6-4da0b677e026</t>
+          <t>کدام یک از موارد زیر ورودی حنجره را باز می‌کند؟</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -11517,7 +11526,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>63f3f784-951d-435d-9bc6-1c0fd3c4995b</t>
+          <t>کدام لیگامان حرکت اکستنشن در مفصل ران را محدود می‌کند؟</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -11565,7 +11574,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>5b516197-75e3-4761-b524-45f8664dd22d</t>
+          <t>اینسیسورا ترمینالیس بین کدام قسمت‌ها قرار دارد؟</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -11622,7 +11631,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>743de017-b606-44be-9704-b0275b8d2909</t>
+          <t>رایج‌ترین وکتور مورد استفاده برای کلونینگ dna کدام است؟</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -11669,7 +11678,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>9b78da2b-288f-4d9c-8fa7-ceb15576da76</t>
+          <t>کدام یک از موارد زیر جزء گرانول های ثانویه در نوتروفیل ها است؟</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -11720,7 +11729,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>8ed8ad41-652c-4688-99cb-534741d18a0a</t>
+          <t>کدام یک از آنزیم های زیر از nadp به عنوان کوآنزیم استفاده می کند؟</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -11768,7 +11777,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>803ed17e-42ea-4d00-9f7a-af0ef4da952c</t>
+          <t>در مورد سندرم سوییر صحیح کدام است؟</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -11825,7 +11834,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>524812c4-9ac3-4f42-a927-8e28f19c1fda</t>
+          <t>ویژگی‌های شوک</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -11878,7 +11887,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>d1c938c9-e744-43d7-b3ad-726964680438</t>
+          <t>داروهای ضد انعقاد خوراکی حداقل چند روز قبل از عمل جراحی قطع می‌شوند؟</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -11921,7 +11930,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>97bccc99-7bc6-452b-aea0-7772f39f9d22</t>
+          <t>آسیب به سرخرگ پوپلیتئال در شکستگی انتهای تحتانی استخوان ران می‌تواند ناشی از کدام مورد باشد؟</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -11974,7 +11983,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>8ccc554a-3ac5-41db-a2ae-df75e4dc40b3</t>
+          <t>کدام مورد در مورد انسداد خروجی معده نادرست است؟</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -12037,7 +12046,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>87a51c51-9de7-4626-b5d9-fb677abeadc2</t>
+          <t>حداکثر مقدار واحد هانزفیلد (hu) مربوط به کدام است؟</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -12085,7 +12094,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>fa9bc192-9ecf-4b36-8da2-fc984cc9348a</t>
+          <t>فرآورده نهایی متابولیسم پروژسترون که در ادرار یافت می‌شود کدام است؟</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -12141,7 +12150,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>195ca31f-3312-42c2-8240-7ceb79600fb3</t>
+          <t>شیر کدام یک از موارد زیر کمترین مقدار کلسیم را دارد؟</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -12196,7 +12205,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>b355a25b-99c9-4a47-815e-205a2db6ea02</t>
+          <t>نکروز مایع‌ساز در کدام یک از موارد زیر مشاهده می‌شود؟</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -12242,7 +12251,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>f1567edc-4e71-4c28-9c4c-5b6a8c306a82</t>
+          <t>کدام یک از موارد زیر از ویژگی‌های صرع میوکلونیک نوجوانی است؟</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -12287,7 +12296,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>b8e1f7a8-2436-4483-a89c-5596094b7b4e</t>
+          <t>کدام یک از پارامترهای زیر مهم‌ترین عامل در تجزیه و تحلیل مایع منی برای ارزیابی شانس باروری در مردان نابارور است؟</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -12332,7 +12341,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>cec7131c-af77-4954-b9fb-4e2f1fe04bdb</t>
+          <t>figlu یک محصول میانی از کدام اسید آمینه زیر است؟</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -12396,7 +12405,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>0f392a0d-69c2-4309-a3f9-21fc18ed7b3b</t>
+          <t>سیستم تزریق کنترل شده توسط کامپیوتر چه نامیده می‌شود؟</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -12444,7 +12453,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>e467135e-7081-49dd-a78e-0964056692f0</t>
+          <t>یک زن ۵۰ ساله با درد کمر به مدت ۳ هفته مراجعه می‌کند. مطالعات رادیولوژیک چندین ضایعه لیتیک مجزا در ناحیه کمر و لگن نشان می‌دهد. آزمایش‌های آزمایشگاهی سطح بالای آلکالین فسفاتاز سرم را نشان می‌دهند. سطح کلسیم سرم، پروتئین سرم و اسمیر خون محیطی طبیعی هستند. بیوپسی آسپیراسیون یک ضایعه لگنی سلول‌های کراتین مثبت را نشان می‌دهد. کدام یک از موارد زیر محتمل‌ترین تشخیص است؟</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -12505,7 +12514,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>bac77a05-8faf-493f-a6ee-4c6b9d3db862</t>
+          <t>در شوک هموراژیک، اولین اقدام فوری کدام است؟</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -12557,7 +12566,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>6b82f96f-066f-4092-9cd5-48a3a8c3b10c</t>
+          <t>برای ضعف و از دست دادن حسی طرف مقابل، بدتر شدن در صورت و بازو؛ همیانوپسی همونیم؛ آفازی یا سندرم غفلت، محل ضایعه بیماری عروق مغزی را انتخاب کنید.</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -12609,7 +12618,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>7ebdc426-4485-4b2f-bebc-e6eb9afed43a</t>
+          <t>شکاف لب به دلیل عدم اتصال کدام بخش‌ها ایجاد می‌شود؟</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -12655,7 +12664,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>b330ab00-530d-4925-aeae-671783a3b994</t>
+          <t>نقطه ارب در محل اتصال کدام مهره‌ها قرار دارد؟</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -12698,7 +12707,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>8d5a35c3-b699-40b3-8f10-8e3c9f71578b</t>
+          <t>خطوط افزایشی رتزیوس چگونه ظاهر می‌شوند؟</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -12752,7 +12761,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>958e045b-ee50-4e9d-beb6-c32ebe65674b</t>
+          <t>چرا gic بهترین ماده ترمیمی در کودکان است؟</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -12804,7 +12813,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>6857b509-fba4-4a3f-9110-b33713b54858</t>
+          <t>شریان فوقانی فوق کلیوی از کجا منشأ می‌گیرد؟</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -12859,7 +12868,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>c0ccdeaa-b220-40be-a5ea-5e6b7b3469da</t>
+          <t>بیمار ماده ناشناخته‌ای را بلعیده و با حرکات میوکلونیک، تشنج، تاکیکاردی و هیپوتانسیون مراجعه کرده است. نوار قلب نشان‌دهنده ضربان قلب 120 در دقیقه است. آزمایش گازهای خون شریانی ph برابر 7.25، pco2 برابر 30 میلی‌متر جیوه و بیکربنات 15 میلی‌مول در لیتر را نشان می‌دهد. مسمومیت با کدام عامل محتمل‌تر است؟</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -12920,7 +12929,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>44797cd6-43bc-4f0e-966a-28785d2d9a54</t>
+          <t>شایع‌ترین محل آدامانتینوما در استخوان‌های بلند کدام است؟</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -12971,7 +12980,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>21f2d1ae-c37f-4c36-bfc4-6ff13bb9adfe</t>
+          <t>عروق تغذیه‌کننده استخوان از کدام انتها وارد می‌شود؟</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -13013,7 +13022,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>7b08fb51-d1de-4423-afb3-5d4208af2998</t>
+          <t>تومور(های) مدیاستین قدامی عبارتند از - الف) تیموما ب) آنوریسم آئورت ج) کیست برونکوژنیک د) لنفوم ه) فتق بوخدالک</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -13067,7 +13076,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>b20920e2-b16b-4aa0-9896-c0a96714580f</t>
+          <t>'le facie sympathique' نشان دهنده چیست؟</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -13133,7 +13142,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>df4e8704-bd55-463c-9907-a4f09f8531c9</t>
+          <t>شکستگی مونتگیا چیست؟</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -13187,7 +13196,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>1cf07837-46db-4930-80a1-d97af9abd955</t>
+          <t>در مورد کلسیفیکاسیون متاستاتیک کدام گزینه صحیح است؟</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -13241,7 +13250,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>fd9e5665-6e0a-44ce-8357-0195252ddcc1</t>
+          <t>شایع‌ترین علامت اصلی اختلال وسواس فکری-عملی چیست؟</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -13291,7 +13300,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>13a7dc6a-7345-4f84-8fcc-050adae16972</t>
+          <t>یک فرد چاق توسط دوستی نگران به اورژانس آورده می‌شود. بیمار به مدت چهار ماه رژیم غذایی "گرسنگی خودتحمیل‌شده" داشته و تنها با مصرف آب و قرص‌های ویتامین ۶۰ پوند وزن از دست داده است. اگر آزمایش‌های خون گسترده‌ای انجام شود، کدام یک از موارد زیر انتظار می‌رود که افزایش یافته باشد؟</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -13341,7 +13350,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>47b0658d-58b3-4833-876c-500012b2737d</t>
+          <t>کدام یک از موارد زیر داروی انتخابی در فشار خون ناشی از بارداری است؟</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -13395,7 +13404,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>0e6f9441-2e18-478b-9ffe-f0c965226109</t>
+          <t>بیشترین مقدار اسیدهای چرب ضروری در کدام گزینه یافت می‌شود؟</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -13447,7 +13456,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>5f683396-97fb-422c-9fec-cb97370f8d28</t>
+          <t>توانایی تغلیظ کلیه در اثر آسیب به کدام قسمت از بین می‌رود؟</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -13506,7 +13515,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>da6170ab-6a68-4a2c-bbf8-900eb0574402</t>
+          <t>همیانوپیای دوگیجگاهی مشخصه کدام یک از موارد زیر است؟</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -13558,7 +13567,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>854c5b07-371d-4ea3-b93a-4531a8641e95</t>
+          <t>ضد ige مورد استفاده در آسم کدام است؟</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -13611,7 +13620,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>18df918b-e9f0-4259-b8aa-bbfffa95e989</t>
+          <t>همه موارد زیر گسیل‌دهنده خالص بتا هستند به جز:</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -13665,7 +13674,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>6129d5d7-dfeb-4265-847d-9cc2e71393c7</t>
+          <t>اکتوپیا لنتیس ناشی از کدام مورد است؟</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -13717,7 +13726,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>4d5a6758-4d2c-470d-a607-81b1f83ddf09</t>
+          <t>همه موارد زیر در مورد آبسه کبدی آمیبی صحیح است به جز</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -13770,7 +13779,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>d92e085f-2ba7-492f-a16a-4501bc3bbb88</t>
+          <t>یک پسر 5 ساله با لوکوریا در چشم راست تشخیص داده شد که رتینوبلاستوما درگیر تمام کره چشم است، در حالی که چشم دیگر دارای 2-3 ضایعه کوچک در محیط بود. مدیریت ایده آل برای این بیمار چیست؟</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -13824,7 +13833,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>46ec4e9b-fdb0-4693-b79f-8dbfdc1160ef</t>
+          <t>فشار مویرگی پالپ</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -13885,7 +13894,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>35a7cc55-0775-497b-981d-d7dbfeffebb0</t>
+          <t>سلول‌های بزرگ با ظاهری شبیه به گیاه و هاله پری‌نوکلئار در کدام نوع کارسینوم سلول کلیوی دیده می‌شود؟</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -13939,7 +13948,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>d20c6544-aede-4195-b5d5-09200b7ab9ce</t>
+          <t>کیستیک آرتری از کدام شریان منشأ می‌گیرد؟</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -13983,7 +13992,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>427231ff-b3fc-4cc1-a169-f471eb0ee660</t>
+          <t>کدام یک از گزینه های زیر در مورد کارسینوم معده صحیح است؟</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -14034,7 +14043,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>95c7654d-7214-4748-a95a-a05f1e61d3d8</t>
+          <t>پتوز دو طرفه در کدام یک از موارد زیر دیده نمی‌شود؟</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -14089,7 +14098,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>3eee9665-0901-480a-b9a7-fd3586685e53</t>
+          <t>نسبت لسیتین/اسفنگومیلین (l/s) برای ارزیابی بلوغ کدام عضو اندازه‌گیری می‌شود؟</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -14134,7 +14143,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>01b2344f-2238-4534-92d0-1440d66083d3</t>
+          <t>آسیب به ناحیه خطرناک صورت که عفونت به کجا منتقل می‌شود؟</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -14194,7 +14203,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>79b0a639-66b3-4204-9fc8-fdfe4ecd07f6</t>
+          <t>کدام یک از موارد زیر برای مانیتورینگ تنفس در نوزادان (بدون لوله گذاری تنفسی) استفاده می‌شود؟</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -14244,7 +14253,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>611f31ee-eb43-4a4b-b8d1-b708174a7f6d</t>
+          <t>خودمحوری و جاندارپنداری در کدام مرحله از رشد شناختی یافت می‌شود؟</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -14310,7 +14319,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>fc5240b7-e342-413d-9712-889573ce09d3</t>
+          <t>سختی آب آشامیدنی باید چقدر باشد؟</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -14366,7 +14375,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>faf2437f-27a3-4479-b47b-5c6f4780fd82</t>
+          <t>تست آدسون برای تعیین نارسایی عروقی استفاده می‌شود. این تست در کدام مورد مفید است؟</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -14414,7 +14423,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>1665a2b5-201d-4c93-baa7-7de6f83a90ac</t>
+          <t>تنها عاملی که می‌توان از بیمار ثبت کرد چیست؟</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -14472,7 +14481,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>ac749055-17a2-41c9-a472-56a3f68085cd</t>
+          <t>تومور استرنوکلیدوماستوئید چیست؟</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -14527,7 +14536,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>737302f0-c062-4d6f-8152-6e389968619a</t>
+          <t>تشکیل استخوان جدید پریوستال در کدام یک از موارد زیر دیده می‌شود؟</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -14572,7 +14581,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>c603195f-8cd2-4008-b4d8-9ceb17342026</t>
+          <t>کدام مورد در مورد گلوکوم مادرزادی چشم نادرست است؟</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -14620,7 +14629,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>f14964c5-1d8d-4212-9521-0af298549509</t>
+          <t>صدای معمولی که از فاصله 1 متری شنیده می‌شود، شدت صدای رسیده به گوش چقدر است؟</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -14671,7 +14680,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>3954eed1-0c1b-4fed-a5d9-4d2f92c28221</t>
+          <t>کودکی با شک به بلعیدن یک ماده، با علائم خشکی دهان، مردمک گشاد شده، مشکل در بلع، هذیان، و پوست خشک و گرم مراجعه کرده است. کدام یک از موارد زیر محتمل‌ترین ماده بلعیده شده است؟</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -14734,7 +14743,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>b88f2d01-ba55-4c2b-9749-33134f164239</t>
+          <t>در یک فرد 60 ساله، کدام یک از بیماری‌های زیر باعث ایجاد ضایعات منبسط‌شونده فک بالا می‌شود؟</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -14784,7 +14793,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>b1b74403-0e05-4703-9f8c-779e64556e47</t>
+          <t>مؤثرترین دارو در درمان شب‌ادراری کدام است؟</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -14832,7 +14841,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>ed111c08-2532-4e7c-ac67-d8cee9473352</t>
+          <t>کدام یک از داروهای بیهوشی زیر هنگام تزریق داخل وریدی باعث ایجاد درد می‌شود؟</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -14879,7 +14888,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>5bab1ce7-a930-4d9c-9a35-5f0c04e5cb86</t>
+          <t>روش تلقیح داخل رحمی در تمام موارد زیر به جز کدام مورد استفاده می‌شود؟</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -14925,7 +14934,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>90dfde3a-673f-4af3-9bc4-04f2071d09f5</t>
+          <t>"بال زدن" کتف به دلیل آسیب کدام عصب است؟</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -14975,7 +14984,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>520e929c-7381-4524-9425-db29dde52515</t>
+          <t>تمامی عبارات زیر در مورد آسیب سلولی برگشت‌پذیر صحیح هستند به جز</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -15030,7 +15039,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>13780ba3-12ad-4419-9efa-aa5b3905bc0b</t>
+          <t>کدام یک از موارد زیر روند فعلی در مراقبت های بهداشتی است؟</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -15083,7 +15092,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>d23178f7-4b65-47dc-9fea-1ce9fbdd0759</t>
+          <t>رسوبات قرنیه ای قرمز رنگ در کدام مورد دیده می شوند؟</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -15131,7 +15140,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>12ea8572-3585-484f-b969-439d4f0f06cc</t>
+          <t>در برنامه ملی پیشگیری از نابینایی ناشی از سوءتغذیه، دوز واحد ویتامین a که به کودک در گروه سنی 6-11 ماه داده می‌شود، کدام است؟ مارس 2005</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -15176,7 +15185,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>3a8719ca-df1c-4168-995f-61a56b21b31c</t>
+          <t>میزبان قطعی اکینوکوکوس گرانولوزوس کدام است؟</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -15222,7 +15231,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>281b0ddc-e7d8-4b8f-857e-1e46ac6a2c8e</t>
+          <t>سیاست ملی سلامت که قبل از سال 1960 اعلام شده است کدام است؟</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -15276,7 +15285,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>30e098ff-d0bf-427f-8f1f-cb94441d2df0</t>
+          <t>سیترات به عنوان تنها منبع کربن توسط کدام باکتری استفاده می‌شود؟</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -15323,7 +15332,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>e7b98f7e-21af-4e28-bc16-f707f0b71709</t>
+          <t>یک موج p پهن و دندانه‌دار معمولاً در کدام مورد مشاهده می‌شود؟</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -15368,7 +15377,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>b960cd99-5053-4a4c-9684-cecc905b6fa3</t>
+          <t>عفونت مادرزادی آبله مرغان باعث همه موارد زیر به جز کدام میشود؟</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -15428,7 +15437,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2e1bb215-3f3d-417f-9336-2dd3217394b1</t>
+          <t>میزان انرژی توصیه شده روزانه برای یک زن بالغ با کار سنگین کدام یک از موارد زیر است؟</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -15475,7 +15484,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>c7bc0d86-378d-4588-9a70-13c0b9ef1121</t>
+          <t>اسیدهای صفراوی ثانویه توسط کدام عضو ساخته می‌شوند؟</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -15535,7 +15544,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>82745eef-20c7-4e10-9b2b-ff016361ba96</t>
+          <t>شایع ترین ناهنجاری مادرزادی مرتبط با وضعیت صورت جنین در زایمان کدام است؟</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -15590,7 +15599,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>9fb64b5e-19a6-4754-b5cd-cd3801040ef5</t>
+          <t>احساس وجود توده در گلو که با خوردن غذا برطرف می‌شود، به چه چیزی نسبت داده می‌شود؟</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -15641,7 +15650,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>f1566f4b-b795-431a-98f9-3b397e063415</t>
+          <t>دامنه همگرایی تطابقی چیست؟</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -15691,7 +15700,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>5df5cc5a-9fd6-4eaa-9702-d5415ce65a51</t>
+          <t>کدام یک از موارد زیر در مورد سیستم انتقال کراتین-فسفات صحیح است؟</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -15743,7 +15752,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>8007ab72-0fe7-4ec4-9840-20f47cf32752</t>
+          <t>شبیه سازی آگاهانه علائم بیماری چیست؟</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -15793,7 +15802,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>08bc3629-079d-41ec-9fd6-13c796c88ea5</t>
+          <t>موهای علامت تعجبی در کدام مورد دیده می‌شوند؟</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -15843,7 +15852,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>f10cfa35-1884-4319-ba6d-d586070ef1f5</t>
+          <t>عملکرد حنجره چیست؟</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -15901,7 +15910,11 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>9eaf5445-0c44-4273-a0d8-758aabbd9b34</t>
+          <t>کدام یک از آزمایش های آنزیمی زیر برای تشخیص الکلیسم مفید است؟  
+الف) sgot  
+ب) sgpt  
+ج) آلکالین فسفاتاز  
+د) گلوتامیل آمینوترانسفراز</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -15953,7 +15966,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>7a7f0001-42e6-4aae-ace6-ba46fbae2d1c</t>
+          <t>تکمیل تاج دندان دوم پرمولار فک بالا در چه زمانی اتفاق می‌افتد؟</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -16004,7 +16017,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>5d57fe21-f8cc-4b40-8a9e-047d983858e5</t>
+          <t>در مورد pmsma نادرست است:</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -16056,7 +16069,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>ccefb71d-ac30-46e2-91fb-42446c63de1f</t>
+          <t>پروتوانکوژن ret با کدام یک از موارد زیر مرتبط است؟</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -16113,7 +16126,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>702f2177-19eb-46fc-a1e4-972372aaadf9</t>
+          <t>کدام دارو اثرات احشایی نئوستیگمین را که برای برگشت انسداد وکورونیوم استفاده می‌شود، آنتاگونیسم می‌کند؟</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -16168,7 +16181,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>c70730d2-f6b3-480d-a001-9a0825e5512d</t>
+          <t>پوست روی غده پاروتید توسط کدام عصب عصب‌دهی می‌شود؟</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -16228,7 +16241,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>152ffd17-a80d-4a45-9a48-400bd100c65d</t>
+          <t>کدام یک از موارد زیر از علل خونریزی ثانویه پس از زایمان نیست؟</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -16277,7 +16290,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>b4a3008d-4e9d-48f8-ad65-1b10f3b387e3</t>
+          <t>بیماری کرون با کدام یک از موارد زیر مرتبط است؟</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -16333,7 +16346,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>6d09f3ce-e376-4603-ade7-707087d89550</t>
+          <t>بیوپسی کلیه یک پسر 6 ساله با هماچوری واضح مکرر، نفروپاتی iga را نشان می‌دهد. دفع پروتئین ادراری 130 میلی‌گرم در روز است. کدام یک از گزینه‌های زیر مناسب‌ترین اقدام بعدی در مدیریت این بیمار است؟</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -16394,7 +16407,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>ea5b4bb2-8092-43cf-ab8d-a8a0a39d2152</t>
+          <t>دارویی که به اسیدهای صفراوی در روده متصل شده و از بازگشت آنها به کبد از طریق گردش صفراوی-کبدی جلوگیری می‌کند، کدام است؟</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -16445,7 +16458,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>afb77613-5336-4ce8-b1e3-691fec88f294</t>
+          <t>پودوسیت ها در کدام قسمت دیده می شوند؟</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -16495,7 +16508,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>7139e69f-3f13-4fd3-b298-770a08be29bc</t>
+          <t>تشخیص ویروس روتا از طریق کدام روش انجام می‌شود؟</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -16545,7 +16558,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>debc0589-03fa-4380-9deb-50e0ec51a654</t>
+          <t>در تکنیک خارج دهانی برای بلاک عصب ماگزیلاری، سوزن باید در کدام یک از جهت‌های زیر به صفحه پتریگوئید جانبی هدایت شود؟</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -16592,7 +16605,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>c71bfaa9-3afc-4bac-86fe-31c7de98eec4</t>
+          <t>مکانیسم عمل سیلودوسین:</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -16640,7 +16653,11 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>b334150b-7163-4f53-8105-dd807877aa07</t>
+          <t>فرم های آماستیگوت در کدام یک دیده می شوند؟  
+الف) لیشمانیا دونووانی  
+ب) توکسوپلاسما گوندی  
+ج) لیشمانیا ماژور  
+د) انتاموبا</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -16699,7 +16716,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>62a2992f-4b63-4291-b64f-e42f26b63e13</t>
+          <t>هورمون‌های ترشح شده توسط مدولای آدرنال کدامند؟</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -16757,7 +16774,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>3ac01eca-0134-42aa-a838-fad9f9177fdd</t>
+          <t>زمان لازم برای تکامل انگل از مرحله گامتوسیت به اسپوروزوئیت در پشه چه نامیده می‌شود؟</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -16807,7 +16824,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>df1c997e-b9e5-4218-8c2f-38297f96a128</t>
+          <t>زایمان طبیعی پس از سزارین (vbac) در کدام مورد منع مصرف دارد؟</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -16855,7 +16872,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>5b510738-48fa-45d0-bd50-161b86062ded</t>
+          <t>استخوان هیوئید در کجا قرار دارد؟</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -16910,7 +16927,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>7dd371f0-9a7b-478a-a7cf-d3d3344682e7</t>
+          <t>اجسام اودلند در کدام لایه اپیدرم دیده می‌شوند؟</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -16964,7 +16981,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>b04aeb9f-de02-4ac6-9b6d-c53636789416</t>
+          <t>تشکیل معیوب فاگولیزوزوم ویژگی کدام یک از موارد زیر است؟</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -17012,7 +17029,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>5277a70b-4f30-4333-b6db-d4c7f57a13a4</t>
+          <t>مؤثرترین روش درمان مسمومیت با دیژیتال چیست؟</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -17057,7 +17074,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>00ef22c6-2d25-41d0-b6de-c5f22e473ab3</t>
+          <t>درمان ترک در کدام مورد الزامی است؟</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -17104,7 +17121,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>22ef3d06-ee2c-4446-b483-8f1165e89c0b</t>
+          <t>در برنامه کنترل ایدز، بسته آبی رنگ برای درمان کدام یک از بیماری‌های مقاربتی استفاده می‌شود؟</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -17149,7 +17166,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>90834021-b66e-4a04-b605-2ad359cde7d0</t>
+          <t>بهترین محرک برای ترشح سکرتین چیست؟</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -17201,7 +17218,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>6ffd899a-4d4b-4216-b8ac-6e16a4b0daa1</t>
+          <t>مدول الاستیک آمالگام دندانی:</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -17252,7 +17269,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>abca7235-e782-4bfc-8264-5ab0f2e2113d</t>
+          <t>اسپونجیوزیس شامل کدام لایه است؟</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -17301,7 +17318,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>9513fc4d-d89c-41ea-8224-c327f98bda77</t>
+          <t>اداره اثر انگشت برای اولین بار در کدام کشور تأسیس شد؟</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -17349,7 +17366,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>fb15b160-77d9-4bf1-bf49-ed71f6786332</t>
+          <t>پورپورای ترومبوتیک ترومبوسیتوپنیک سندرمی است که با کدام یک از موارد زیر مشخص می‌شود؟</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -17407,7 +17424,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>3d9a93c8-0bb0-4c21-b2f8-8b738275d05c</t>
+          <t>عبارت صحیح در مورد مومیایی شدن:</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -17457,7 +17474,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>4ecadc8d-3cc3-402d-a0e1-bfb6c3ea0cff</t>
+          <t>کدام یک از موارد زیر به صورت تجاری برای استریلیزاسیون وسایل پلاستیکی یکبار مصرف استفاده می‌شود؟</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -17509,7 +17526,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>d091d390-cb34-4b71-b31b-0c82784c8a05</t>
+          <t>شایع‌ترین نوع فاگوس در دوقلوها کدام است؟</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -17558,7 +17575,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>a593d73c-2569-4cbc-8bad-e8f62187c361</t>
+          <t>کدام یک از موارد زیر از علل شایع فتق دیواره شکم نیست؟</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -17605,7 +17622,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>7fe74fa4-33a1-4097-aecf-8fb19683859d</t>
+          <t>سم کزاز با چه مکانیسمی عمل می‌کند؟</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -17653,7 +17670,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>2703c371-ef26-4934-bf3c-f859915fa6f0</t>
+          <t>بیمار با علائم آلوپسی اسکاردار، ناخن‌های نازک شده، ضایعات ماکولار هیپوپیگمانته روی تنه و مخاط دهان مراجعه می‌کند. تشخیص چیست؟</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -17702,7 +17719,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>6d4eabfd-49d4-4884-a056-54b65910c5d6</t>
+          <t>ندول ماهواره‌ای روی زخم قرنیه به دلیل چه چیزی دیده می‌شود؟</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -17763,7 +17780,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>f29703bf-cb42-4801-b62b-f93d588db024</t>
+          <t>"قضیه برنولی" توضیح می‌دهد -</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -17806,7 +17823,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>ea3e2238-654f-4bd4-9ddf-aa2d3eea5e03</t>
+          <t>تظاهرات خارج مفصلی آرتریت روماتوئید شامل همه موارد زیر است به جز</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -17856,7 +17873,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>f6dea44b-fd89-4db3-84c2-d2500a2a59b0</t>
+          <t>سیفلیس اولین بار توسط چه کسی شناسایی شد؟</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -17903,7 +17920,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>bbb47416-6d10-4a81-b4c3-eeab143013d9</t>
+          <t>عمل یانگ برای چه شرایطی انجام می‌شود؟</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -17955,7 +17972,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>5d33e7b7-ff04-43fd-898c-ee4dca563e68</t>
+          <t>کدام آنزیم در گرانول های اولیه وجود دارد؟</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -18001,7 +18018,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>76b0284c-a6b3-4866-a4d6-4da0b677e026</t>
+          <t>سندرم دامپینگ در کدام یک از روش‌های زیر کمتر اتفاق می‌افتد؟</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -18050,7 +18067,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>63f3f784-951d-435d-9bc6-1c0fd3c4995b</t>
+          <t>میزان نیاز ویتامین a در نوزادان چقدر است؟</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -18113,7 +18130,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>07556b04-d08c-49bb-bc8e-645bcf9860b3</t>
+          <t>کدام یک از موارد زیر با سندرم داون مرتبط نیست؟ مارس 2010</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -18160,7 +18177,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>743de017-b606-44be-9704-b0275b8d2909</t>
+          <t>کدام یک از موارد زیر نمونه ای از استخوانی است که از نظر فیلوژنتیکی مستقل است اما اکنون با استخوان دیگری جوش خورده است؟</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -18210,7 +18227,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>9b78da2b-288f-4d9c-8fa7-ceb15576da76</t>
+          <t>کدام عصب در برش مک بورنی بیشترین آسیب را می‌بیند؟</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -18272,7 +18289,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>8ed8ad41-652c-4688-99cb-534741d18a0a</t>
+          <t>اِزِتیمیب با چه مکانیسمی عمل می‌کند؟</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -18322,7 +18339,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>ce82c0c7-547f-4966-961b-661d5268ee46</t>
+          <t>کوسمال در کدام یک از موارد زیر دیده نمی‌شود؟ سپتامبر 2010</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -18377,7 +18394,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>803ed17e-42ea-4d00-9f7a-af0ef4da952c</t>
+          <t>در برونشیولیت موارد زیر دیده می‌شود-</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -18427,7 +18444,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>524812c4-9ac3-4f42-a927-8e28f19c1fda</t>
+          <t>اتوسپونگیوزیس چگونه به ارث می‌رسد؟</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -18487,7 +18504,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>d1c938c9-e744-43d7-b3ad-726964680438</t>
+          <t>علت‌های جداشدگی شبکیه اگزوداتیو – الف) انسداد شریان مرکزی شبکیه ب) رتینوپاتی هیپرتانسیو ج) سندرم هارادا د) بیماری کوتس</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -18533,7 +18550,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>128cf80e-3683-4929-becb-e01cc9b3c44e</t>
+          <t>تشخیص نقص استخوان به طور دقیق توسط کدام روش انجام می‌شود؟</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -18588,7 +18605,12 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>8307f545-8e49-4a67-88e7-e36384230195</t>
+          <t>در مورد گرانولوم ائوزینوفیلیک کدام گزینه صحیح است؟  
+الف) شایع‌ترین سن 20-45 سالگی  
+ب) در زنان شایع‌تر است  
+ج) ضایعه استئولیتیک  
+د) جمجمه معمولاً درگیر می‌شود  
+ه) ریه معمولاً درگیر می‌شود</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -18644,7 +18666,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>97bccc99-7bc6-452b-aea0-7772f39f9d22</t>
+          <t>سیاهرگ‌های پیشین قلبی به کجا باز می‌شوند؟</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -18691,7 +18713,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>87a51c51-9de7-4626-b5d9-fb677abeadc2</t>
+          <t>یک بیمار 45 ساله با سابقه تب، تعریق شبانه و کاهش وزن مراجعه می‌کند. در عکس‌برداری اشعه ایکس، یک توده در لوب آپیکال ریه مشاهده می‌شود. در بررسی هیستوپاتولوژی، نکروز کازئوز یافت شده است. فرآیند زمینه‌ای احتمالی درگیر چیست؟</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -18743,7 +18765,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>fa9bc192-9ecf-4b36-8da2-fc984cc9348a</t>
+          <t>یک مرد 60 ساله مبتلا به دیابت ملیتوس از درد سوزشی عمیق و حساسیت به لمس در دست‌ها و انگشتانش شکایت دارد. مطالعات هدایت عصبی، انتقال آهسته تکانه‌ها و کاهش رفلکس‌های کششی عضلانی در مچ پا و زانوها را نشان می‌دهد. احساس لرزش و لمس ملایم نیز به‌طور قابل توجهی کاهش یافته است. ایجاد پلی‌نوروپاتی در این بیمار بیشترین همبستگی را با کدام یک از شرایط زیر دارد؟</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -18789,7 +18811,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>195ca31f-3312-42c2-8240-7ceb79600fb3</t>
+          <t>اسیدهای چرب با زنجیره متوسط</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -18838,7 +18860,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>b355a25b-99c9-4a47-815e-205a2db6ea02</t>
+          <t>کدام یک از مواد زیر قوی‌ترین آندروژن است؟</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -18890,7 +18912,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>cec7131c-af77-4954-b9fb-4e2f1fe04bdb</t>
+          <t>دلیل ترجیح سیس-آتراکوریوم بر آتراکوریوم چیست؟</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -18941,7 +18963,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>14af8c76-7118-4f3d-84fb-882507ab2e99</t>
+          <t>کدام گزینه در مورد کلهسیستیت حاد نادرست است؟</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -18988,7 +19010,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>e467135e-7081-49dd-a78e-0964056692f0</t>
+          <t>کدام یک از موارد زیر علت ماکولوپاتی هیپوتونی نیست؟</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -19043,7 +19065,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>707c7017-5f8b-47bd-98d1-dfbd87b041d6</t>
+          <t>زردی رنگ مخاط دهان، پوست و صلبیه چشم نشانه کدام مورد است؟</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -19093,7 +19115,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>4bc8d4d4-010c-4000-838d-674cb4541a4a</t>
+          <t>بیمار 35 ساله با شکایت از سردرد، استفراغ (افزایش فشار داخل جمجمه‌ای) و آتاکسی مراجعه کرده است. یافته‌های mri نشان‌دهنده یک ضایعه کیستی با حاشیه مشخص و یک ندول دیواره‌ای در نیمکره مخچه راست با افزایش همگن کنتراست است. محتمل‌ترین تشخیص کدام است؟</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -19151,7 +19173,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>0cff9a14-c5d8-4379-ab37-d348dfbef8f3</t>
+          <t>داروی مورد استفاده در گلوکوم حاد احتقانی همه موارد زیر هستند به جز: (pgi nov 2009)</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -19205,7 +19227,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>6b82f96f-066f-4092-9cd5-48a3a8c3b10c</t>
+          <t>بهترین روش پیشگیری از بارداری برای زوج‌های تازه‌ازدواج‌کرده -</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -19269,7 +19291,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>7ebdc426-4485-4b2f-bebc-e6eb9afed43a</t>
+          <t>کدام عضله به صورت خالص باعث بالا آوردن فک می‌شود؟</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -19324,7 +19346,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>62bedbd9-7f28-4e00-8e18-9b71425e6552</t>
+          <t>کدام مهره گردنی بدنه یا زائده خاری ندارد؟</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -19376,7 +19398,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>826f055f-af25-4015-a617-b5b55d8ee5e5</t>
+          <t>نوزاد مرده به دنیا آمده به چه صورتی تعریف می‌شود؟</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -19437,7 +19459,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>c0ccdeaa-b220-40be-a5ea-5e6b7b3469da</t>
+          <t>فیزوستیگمین برای اولین بار در سال ۱۸۷۷ توسط چه کسی در درمان گلوکوم استفاده درمانی شد؟</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -19491,7 +19513,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>44797cd6-43bc-4f0e-966a-28785d2d9a54</t>
+          <t>انتشارات صوتی گوش توسط چه چیزی تولید می‌شوند؟</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -19545,7 +19567,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>0770248f-2479-441a-86de-2d96c8335a5e</t>
+          <t>معاینه رکتوم رحم در چه مواردی انجام می‌شود؟</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -19593,7 +19615,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>7b08fb51-d1de-4423-afb3-5d4208af2998</t>
+          <t>اصلی‌ترین عیب استفاده از نگهدارنده سد لاستیکی بال‌شکل چیست؟</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -19643,7 +19665,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>b20920e2-b16b-4aa0-9896-c0a96714580f</t>
+          <t>همه موارد زیر در پورپورای هنوخ شوئنلین دیده می‌شوند به جز -</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -19692,7 +19714,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>1721d3b1-a9e3-43a9-be8e-8d308f30bf69</t>
+          <t>سلول های t با کدام مورد شناسایی می شوند؟</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -19738,7 +19760,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>fd9e5665-6e0a-44ce-8357-0195252ddcc1</t>
+          <t>در زمان t = 0، 6 x 10^23 اتم رادیواکتیو از یک ماده وجود دارد که با ثابت فروپاشی (a) برابر با 0.01/ثانیه واپاشی می‌کنند. نرخ واپاشی اولیه چقدر خواهد بود؟</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -19794,7 +19816,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>13a7dc6a-7345-4f84-8fcc-050adae16972</t>
+          <t>آب با سختی متوسط دارای سطح سختی زیر است</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -19853,7 +19875,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>47b0658d-58b3-4833-876c-500012b2737d</t>
+          <t>در کاردیومیوپاتی پریپارتم، نارسایی قلبی در چه زمانی رخ می‌دهد؟</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -19911,7 +19933,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>f45147a4-ea23-4111-b77d-fa4a15ecd8bf</t>
+          <t>میزبان واسط برای شیستوزوما هماتوبیوم کدام است؟ مارس 2013</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -19963,7 +19985,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>da6170ab-6a68-4a2c-bbf8-900eb0574402</t>
+          <t>پانکراتیت ارثی با همه موارد زیر به جز کدامیک مشخص می‌شود؟</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -20013,7 +20035,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>e89fd581-00e8-4a25-8769-da423bdae8b8</t>
+          <t>مارپیچ‌های کورشمن یافته‌ای مشخصه در کدام بیماری هستند؟</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -20060,7 +20082,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>e6ac5271-14bf-4399-aa45-b758ed27a955</t>
+          <t>در مننژیت پنوموکوکی، درمان تجربی داده شده کدام است؟</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -20116,7 +20138,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>18df918b-e9f0-4259-b8aa-bbfffa95e989</t>
+          <t>کدام یک از موارد زیر برای مقایسه دو مجموعه داده که در دو مقیاس اندازه‌گیری مختلف گرفته شده‌اند استفاده می‌شود؟</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -20161,7 +20183,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>6129d5d7-dfeb-4265-847d-9cc2e71393c7</t>
+          <t>در مورد جفت سرراهی، عبارت نادرست در میان گزینه‌های زیر کدام است؟</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -20212,7 +20234,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>4d5a6758-4d2c-470d-a607-81b1f83ddf09</t>
+          <t>داروی انتخابی در وضعیت صرع پایدار چیست؟</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -20258,7 +20280,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>eea85ca4-d892-48a5-99c2-90ba29581479</t>
+          <t>کاهش ظرفیت حمل اکسیژن و سطح طبیعی po2 از ویژگی‌های کدام مورد است؟</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -20310,7 +20332,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>35a7cc55-0775-497b-981d-d7dbfeffebb0</t>
+          <t>اجسام شیلر-دووال در کدام مورد دیده می‌شوند؟</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -20359,7 +20381,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>d20c6544-aede-4195-b5d5-09200b7ab9ce</t>
+          <t>سینوس پیش گوشی</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -20411,7 +20433,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>a11b4c42-e681-4156-b787-035c504bfe3e</t>
+          <t>بیوپسی روده در کدام مورد تشخیصی نیست؟</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -20464,7 +20486,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>d655f73b-bd6c-4302-8736-1d9485c0f1a5</t>
+          <t>دیورتیکولوم در کدام نوع از کیست کلدوکال دیده می‌شود؟</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -20515,7 +20537,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>6a35d6ec-32eb-492e-8729-8aeb9927260a</t>
+          <t>عود کردن تومور تروفوبلاستیک بارداری می‌تواند با همه موارد زیر همراه باشد به جز:</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -20563,7 +20585,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>01b2344f-2238-4534-92d0-1440d66083d3</t>
+          <t>کدام یک از موارد زیر با کرانیوتابس (نرم شدن استخوان‌های جمجمه) همراه نیست؟</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -20610,7 +20632,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>a4b8a38a-fda9-4022-8ffc-54070932c821</t>
+          <t>اولین استخوانی که استخوانی شدن (ossification) را آغاز می‌کند کدام است؟</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -20665,7 +20687,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>611f31ee-eb43-4a4b-b8d1-b708174a7f6d</t>
+          <t>کدام یک از عبارات زیر در مورد دیبوکائین نادرست است؟</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -20722,7 +20744,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>40c4d362-be26-4bcd-9525-893e42516997</t>
+          <t>قطع خطی پوست به چه نامی شناخته می‌شود؟</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -20768,7 +20790,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>fc5240b7-e342-413d-9712-889573ce09d3</t>
+          <t>در مورد ورید همیآزیگوس همه موارد زیر صحیح است به جز</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -20820,7 +20842,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>faf2437f-27a3-4479-b47b-5c6f4780fd82</t>
+          <t>ضایعات گرانولوماتوز اپی تلیوئید در تمام موارد زیر یافت می‌شود به جز</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -20869,7 +20891,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>1665a2b5-201d-4c93-baa7-7de6f83a90ac</t>
+          <t>همه موارد زیر هیستیوسیتوز هستند به جز -</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -20920,7 +20942,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>d41a207b-a226-4a5f-a6e4-972a5d5a9698</t>
+          <t>سوماتومدین چه چیزی را میانجیگری می‌کند؟</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -20975,7 +20997,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>737302f0-c062-4d6f-8152-6e389968619a</t>
+          <t>عفونت‌های منتقل‌شده از انسان به حیوانات به چه نامی شناخته می‌شوند؟</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -21029,7 +21051,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>c603195f-8cd2-4008-b4d8-9ceb17342026</t>
+          <t>جهش در کم خونی سلول داسی شکل چیست؟</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -21078,7 +21100,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>f14964c5-1d8d-4212-9521-0af298549509</t>
+          <t>کدام یک از موارد زیر جزو میکروارگانیسم‌های اکتسابی از بیمارستان محسوب نمی‌شود؟</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -21126,7 +21148,12 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>3b84d4b7-ac47-4261-9911-afb9e640fc94</t>
+          <t>کدام یک از موارد زیر جزو آربوویروس‌های گروه b (فلاوی‌ویروس‌ها) است/هستند؟  
+الف) تب دنگی  
+ب) تب دره ریفت  
+ج) تب چیکونگونیا  
+د) تب ژاپنی (j.e.)  
+ه) تب زرد</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -21181,7 +21208,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>b88f2d01-ba55-4c2b-9749-33134f164239</t>
+          <t>یک پسر ۷ ساله با درد شکمی کرامپی و راش نشان داده شده عمدتاً در پشت پاها و باسن و همچنین روی سطوح اکستانسور ساعدها مراجعه کرده است. تجزیه و تحلیل آزمایشگاهی پروتئینوری و میکروهماتوری را نشان می‌دهد. علاوه بر راش و درد شکمی، چه یافته دیگری احتمالاً در او دیده می‌شود؟</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -21242,7 +21269,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>90dfde3a-673f-4af3-9bc4-04f2071d09f5</t>
+          <t>قشر مخطط مغز چه چیزی را کنترل می‌کند؟</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -21290,7 +21317,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>d3b92e69-d67f-48cb-b93b-9a259ca8d0cb</t>
+          <t>یک پسر 5 ساله با شکستگی در تنه استخوان بازو به کلینیک حوادث مراجعه می‌کند. چگونه می‌توانید درگیری عصب رادیال را رد کنید؟</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -21340,7 +21367,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>13780ba3-12ad-4419-9efa-aa5b3905bc0b</t>
+          <t>در مطالعات اکولوژیک، واحد مشاهده چیست؟</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -21390,7 +21417,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>d23178f7-4b65-47dc-9fea-1ce9fbdd0759</t>
+          <t>کدام رنگ‌آمیزی ویژه برای آمیلوئید از نظر تشخیصی بیشترین ارزش را دارد؟</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -21444,7 +21471,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>12ea8572-3585-484f-b969-439d4f0f06cc</t>
+          <t>تمام موارد زیر در مورد پروستاگلاندین e2 صحیح هستند به جز:</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -21498,7 +21525,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>3a8719ca-df1c-4168-995f-61a56b21b31c</t>
+          <t>یک مرد 20 ساله با سابقه آسیب توپ تنیس به چشم راست مراجعه می‌کند. در معاینه، یک نقطه قرمز در ماکولا دیده می‌شود. محتمل‌ترین تشخیص چیست؟</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -21547,7 +21574,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>30e098ff-d0bf-427f-8f1f-cb94441d2df0</t>
+          <t>ocriplasmin داروی جدیدی است که در کدام یک از موارد زیر استفاده می‌شود؟</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -21600,7 +21627,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>b960cd99-5053-4a4c-9684-cecc905b6fa3</t>
+          <t>ژن مسئول کدگذاری کولین استراز پلاسما در کجا قرار دارد؟</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -21652,7 +21679,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>2e1bb215-3f3d-417f-9336-2dd3217394b1</t>
+          <t>نادرست در مورد سندرم ترک مواد افیونی -</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -21703,7 +21730,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>c7bc0d86-378d-4588-9a70-13c0b9ef1121</t>
+          <t>کدورت‌های پرزدار اطراف ناف ریه در رادیوگرافی قفسه سینه در کدام مورد دیده می‌شود؟</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -21764,7 +21791,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>f93d33d4-2271-4e9d-8ef5-e1003cf45c96</t>
+          <t>سی‌تی اسکن پرینه و لگن یک زن در زیر ارائه شده است. کدام ساختار دارای دریچه یا چین هوستون است که خون وریدی آن توسط سیستم وریدی پورتال تخلیه می‌شود؟</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -21828,7 +21855,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>5bb87492-1306-4a7d-becb-87cfb8c085b1</t>
+          <t>کدام یک پروتئین غشای گلبول قرمز نیست؟</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -21879,7 +21906,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>27df1fa5-f463-4c92-ac54-d4ac8b03da6d</t>
+          <t>سطح تیروکسین در کدام مورد افزایش می‌یابد؟ مارس 2010</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -21930,7 +21957,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>f5f05dd1-ae7e-4bc2-ab7e-4c3367d7251f</t>
+          <t>فعال شدن کدام یک از آنزیم‌های زیر مسئول پانکراتیت حاد است؟</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -21975,7 +22002,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>98c9c1dc-44fa-47ee-9f6e-e1d0604e93c5</t>
+          <t>رایج‌ترین داروی مورد استفاده در سرکوب سیستم ایمنی بیماران پیوند کلیه، سیکلوسپورین است. عارضه اصلی این دارو چیست؟</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -22022,7 +22049,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>f10cfa35-1884-4319-ba6d-d586070ef1f5</t>
+          <t>انتقال گروه آمینو از یک اسید آمینه به یک آلفا-کتو اسید توسط چه آنزیمی انجام می‌شود؟</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -22087,7 +22114,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>9eaf5445-0c44-4273-a0d8-758aabbd9b34</t>
+          <t>کدام یک از موارد زیر جزو محتویات رباط پهن نیست؟</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -22136,7 +22163,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>7a7f0001-42e6-4aae-ace6-ba46fbae2d1c</t>
+          <t>یک مرد ۲۳ ساله از ضایعات پوسته‌دار مکرر روی گلنس پنیس شکایت دارد. این ضایعات همیشه در همان محل ظاهر می‌شوند و با هیپرپیگمانتاسیون خفیف بهبود می‌یابند. محتمل‌ترین تشخیص چیست؟</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -22204,7 +22231,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>96ef6d61-2d47-4f24-bafd-735e2c3f9f44</t>
+          <t>لیپودرماتوسکلروز بیشتر در کدام ناحیه دیده می‌شود؟</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -22249,7 +22276,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>762c7c54-bbe9-4fa6-af85-ad04fbdf72bb</t>
+          <t>در بزرگسالان، طناب نخاعی به طور معمول در کجا پایان می‌یابد؟</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -22299,7 +22326,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>41fbf0b7-ba70-4de3-bc7a-e5adf857cff3</t>
+          <t>کدام یک از ویژگی‌های زیر، شکستگی تادلر را تعریف می‌کند؟</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -22347,7 +22374,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>1dc49299-95d9-4199-9be0-05b25b0cfbd4</t>
+          <t>شل کننده عضلانی مناسب برای بیمار با بیلیروبین سرم 6 میلی‌گرم در دسی‌لیتر و کراتینین سرم 4.5 میلی‌گرم در دسی‌لیتر کدام است؟</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -22398,7 +22425,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>ccefb71d-ac30-46e2-91fb-42446c63de1f</t>
+          <t>کبد کف آلود مشخصه کدام یک از موارد زیر است؟</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -22449,7 +22476,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>84fefccb-ee9a-476d-87a7-8e7b7770fe79</t>
+          <t>کدام فرآورده خونی از مادر به کودک توصیه می‌شود؟</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -22502,7 +22529,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>15e0e81b-05a0-4c3b-a5ac-728d4988507b</t>
+          <t>مطالعه‌ای برای بررسی نقش پرتوها در لوسمی انجام شد، 100 بیمار انتخاب شدند که از بین آنها 70 نفر سابقه مواجهه داشتند، در میان 100 فرد شاهد، 30 نفر سابقه مواجهه را گزارش کردند. سوگیری در این مطالعه چیست؟</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -22549,7 +22576,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>7d83dbc6-bbc6-48fa-bbb1-a4af9d1d6513</t>
+          <t>عبارت صحیح کدام است؟</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -22599,7 +22626,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>b4a3008d-4e9d-48f8-ad65-1b10f3b387e3</t>
+          <t>پس از شستشو با گلوکز، مدت زمانی که کاهش ph در پلاک بین دندانی مشاهده می‌شود:</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -22649,7 +22676,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>78615509-2833-4d67-940a-b2414a4075dd</t>
+          <t>یک کارمند 54 ساله از داشتن دیسفاژی به مدت 15 سال شکایت دارد. تشخیص بالینی آشالازی توسط مطالعه باریم تأیید شده است. در این شرایط کدام گزینه صحیح است؟</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -22700,7 +22727,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>3868d40d-2844-4215-b142-f5ce708c490e</t>
+          <t>همه موارد زیر به جز یکی در اثر قطع تصادفی ساقه هیپوفیز ایجاد می‌شوند</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -22756,7 +22783,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>6d09f3ce-e376-4603-ade7-707087d89550</t>
+          <t>خواص مکانیکی تیتانیوم cp مشابه آلیاژهای زیر است</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -22808,7 +22835,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>ea5b4bb2-8092-43cf-ab8d-a8a0a39d2152</t>
+          <t>سدیم کروموگلیکات موضعی در درمان کدام مورد استفاده می‌شود؟</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -22860,7 +22887,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>d0526bb2-64f2-49dc-bdb9-34044b17747a</t>
+          <t>آنوسمی خوشخیم با کدام یک از موارد زیر مرتبط است؟</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -22910,7 +22937,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>7139e69f-3f13-4fd3-b298-770a08be29bc</t>
+          <t>یک "انگل" که ممکن است یک قارچ باشد، اولین تظاهر بالینی در حدود ۶۰٪ از بیماران مبتلا به ایدز است. این ارگانیسم کدام است؟</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -22965,7 +22992,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>debc0589-03fa-4380-9deb-50e0ec51a654</t>
+          <t>معیار تشخیصی برای اندوکاردیت عفونی شامل همه موارد زیر به جز:</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -23012,7 +23039,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>7af7b0ef-df5e-4fd7-9266-a316a1d254fc</t>
+          <t>بی کربنات در کدام بخش از نفرون به حداکثر میزان جذب می‌رسد؟</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -23070,7 +23097,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>c71bfaa9-3afc-4bac-86fe-31c7de98eec4</t>
+          <t>اندازه کامپوزیت نانو پر شده چقدر است؟</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -23122,7 +23149,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>b334150b-7163-4f53-8105-dd807877aa07</t>
+          <t>مدیریت فعال مرحله سوم زایمان برای همه موارد زیر لازم است به جز</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -23175,7 +23202,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>96452745-c2cb-4d44-987a-f531c6915c6e</t>
+          <t>مکانیسم عمل تتانوسپاسمین:-</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -23234,7 +23261,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>62a2992f-4b63-4291-b64f-e42f26b63e13</t>
+          <t>کاروتن به مقدار زیاد در کدام یک یافت نمی‌شود؟</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -23277,7 +23304,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>3ac01eca-0134-42aa-a838-fad9f9177fdd</t>
+          <t>کدام یک از معیارهای آرتریت روماتوئید جوانان (j.r.a) نیست؟</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -23327,7 +23354,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>df1c997e-b9e5-4218-8c2f-38297f96a128</t>
+          <t>دفاع "قصور مشارکتی" در کدام مورد کاربرد دارد؟ ap 08; delhi 08; odisha 11</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -23390,7 +23417,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>b04aeb9f-de02-4ac6-9b6d-c53636789416</t>
+          <t>هایپوگنادیسم در سیروز به چه علتی رخ می‌دهد؟</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -23434,7 +23461,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>00ef22c6-2d25-41d0-b6de-c5f22e473ab3</t>
+          <t>نکروز پری پورتال کبد در کدام مورد مشاهده می‌شود؟</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -23482,7 +23509,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>90834021-b66e-4a04-b605-2ad359cde7d0</t>
+          <t>میزان مایع آمنیوتیک در هفته ۳۸ بارداری طبیعی چقدر است؟</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -23538,7 +23565,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>6ffd899a-4d4b-4216-b8ac-6e16a4b0daa1</t>
+          <t>فعالیت قلبی جنین با سونوگرافی واژینال در چه زمانی قابل تشخیص است؟</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -23587,7 +23614,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>abca7235-e782-4bfc-8264-5ab0f2e2113d</t>
+          <t>یک زن 34 ساله با التهاب چرکی اندام تحتانی چپ به درمانگاه آورده شده است. کدام یک از گزینه های زیر صحیح است؟</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -23637,7 +23664,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>c17035e5-4a81-412e-b200-74b95c502449</t>
+          <t>یک بیمار دختر ۹ ساله برای معاینه معمول دندانپزشکی مراجعه کرده است. او قادر به بیان صحیح کلمات خود نیست. معاینه عمومی نشان‌دهنده ضعف و سفتی عضلانی، راه رفتن نامنظم، حرکات غیرهماهنگ و غیرارادی، مشکلات جویدن و بلع و همچنین مشکلات گفتاری است. کدام یک از رفلکس‌های زیر ممکن است در این بیمار وجود نداشته باشد؟</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -23694,7 +23721,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>fb15b160-77d9-4bf1-bf49-ed71f6786332</t>
+          <t>رتینوبلاستوماهایی که در زمینه جهش‌های ژرم‌لاین ایجاد می‌شوند نه تنها ممکن است دوطرفه باشند، بلکه ممکن است با ______ نیز همراه باشند (به اصطلاح "رتینوبلاستومای سه‌گانه")</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -23744,7 +23771,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>ba3c216c-af0d-402d-8c81-2f686f79a706</t>
+          <t>یک بیمار با خونریزی شدید دستگاه گوارش فوقانی به بخش اورژانس مراجعه کرده است. در معاینه، طحال کمی بزرگ شده دارد. در صورت عدم دسترسی به اطلاعات دیگر، کدام یک از گزینه‌های زیر مناسب‌ترین روش درمانی است؟</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -23803,7 +23830,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>664f1a29-223a-4740-b84a-3fae2e0c410f</t>
+          <t>آلفا-فتوپروتئین (afp) یک گلیکوپروتئین است که به طور معمول توسط جنین در حال رشد تولید می‌شود. در مورد آلفا-فتوپروتئین، گزینه صحیح کدام است؟</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -23856,7 +23883,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>30e70fc4-942f-469a-93e2-008e4832abbf</t>
+          <t>غلظت پودر سفیدکننده مورد استفاده برای ضدعفونی ادرار و مدفوع چقدر است؟</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -23907,7 +23934,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>4ecadc8d-3cc3-402d-a0e1-bfb6c3ea0cff</t>
+          <t>کدام یک از موارد زیر در تست‌های سریع تشخیص سرولوژی شامل نمی‌شود؟</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -23954,7 +23981,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>d190fe02-76e4-49b4-bbf5-bc3cfe129ad2</t>
+          <t>کاهش فشار خون ناشی از d-tubocurarine به دلیل کدام مورد است؟</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -24009,7 +24036,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>d091d390-cb34-4b71-b31b-0c82784c8a05</t>
+          <t>یک کودک پسر سه ساله با سابقه یبوست و اتساع شکم در طول دو سال گذشته مراجعه کرده است. رادیوگرافی ساده شکم، حلقه های روده متسع حاوی مواد مدفوعی را نشان می دهد. مطالعه باریم انما بعداً یک ناحیه انتقالی در اتصال رکتوسیگموئید با معکوس شدن نسبت رکتوسیگموئید را نشان می دهد. محتمل ترین تشخیص چیست؟</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -24078,7 +24105,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>a593d73c-2569-4cbc-8bad-e8f62187c361</t>
+          <t>در استئواسکلروز فعال، رنگ پرده گوش معمولاً چگونه است؟</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -24121,7 +24148,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>7fe74fa4-33a1-4097-aecf-8fb19683859d</t>
+          <t>سیتوژنتیک سارکوم سلول سینوویال چیست؟</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -24176,7 +24203,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>ea2d0a08-5f7f-479b-9138-ea6f2db14a7c</t>
+          <t>استفاده از کدام یک از موارد زیر به طور قابل توجهی عفونت هوابرد در اتاق عمل را کاهش نمی‌دهد؟</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -24226,7 +24253,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>f29703bf-cb42-4801-b62b-f93d588db024</t>
+          <t>شایع‌ترین علت فلج تارهای صوتی چیست؟</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -24277,7 +24304,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>f6dea44b-fd89-4db3-84c2-d2500a2a59b0</t>
+          <t>ایزوتوپ (های) مورد استفاده در براکی تراپی با دوز بالا – الف) ir192 ب) co–60 ج) cs–133 د) ra 226 ه) pd103</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -24327,7 +24354,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>814347ea-9017-4a36-907e-81402c13023a</t>
+          <t>یک زن ۵۵ ساله به دلیل دیابت کنترل نشده به نارسایی کلیه (esrd) مبتلا شد. او هفته‌ای ۲-۳ بار دیالیز می‌شد. به او پیوند کلیه از اهداکننده جسد توصیه شد که انجام داد. او تحت درمان سرکوب‌کننده سیستم ایمنی با آزاتیوپرین، سیکلوسپورین، متیل‌پردنیزولون و گلوبولین ضد تیموسیت قرار گرفت. دو هفته پس از جراحی، بیمار با داروها مرخص شد. دو هفته بعد، او با شکایت از کاهش حجم ادرار به اورژانس مراجعه کرد. در معاینه، فشار خون او ۱۶۰/۹۵ میلی‌متر جیوه بود. ناحیه پیوند بزرگ‌تر و حساس به لمس بود. آزمایشات نشان‌دهنده کراتینین سرم ۴ mg/dl بود. تشخیص‌های افتراقی شامل رد پیوند و سمیت دارویی است. کدام دارو می‌تواند مسئول این سناریوی بالینی باشد؟</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -24388,7 +24415,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>76b0284c-a6b3-4866-a4d6-4da0b677e026</t>
+          <t>کدام یک از موارد زیر عامل اتیولوژیک در یک زن 70 ساله با سرطان سلول سنگفرشی فرج است؟</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -24437,7 +24464,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>63f3f784-951d-435d-9bc6-1c0fd3c4995b</t>
+          <t>مدیریت یکپارچه بیماری‌های نوزادی و کودکی شامل همه موارد زیر به جز کدام است؟</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -24493,7 +24520,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>5b516197-75e3-4761-b524-45f8664dd22d</t>
+          <t>کدام یک از موارد زیر به عنوان بارداری پرخطر در نظر گرفته نمی‌شود؟</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -24539,7 +24566,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>07556b04-d08c-49bb-bc8e-645bcf9860b3</t>
+          <t>شایع‌ترین علت پرفوراسیون مری</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -24594,7 +24621,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>9b78da2b-288f-4d9c-8fa7-ceb15576da76</t>
+          <t>ترشحات دسیدوای پس از زایمان به چه چیزی اشاره دارد؟</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -24643,7 +24670,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>ce82c0c7-547f-4966-961b-661d5268ee46</t>
+          <t>ضایعه موم چکیده شمع روی ستون فقرات:</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -24695,7 +24722,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>524812c4-9ac3-4f42-a927-8e28f19c1fda</t>
+          <t>آموزش پزشکی که شامل ۳ ماه آموزش در زمینه پزشکی پیشگیرانه و اجتماعی است توسط کدام کمیته معرفی شد؟</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -24740,7 +24767,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>d1c938c9-e744-43d7-b3ad-726964680438</t>
+          <t>شایع‌ترین نوع التهاب حاد کدام است؟</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -24796,7 +24823,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>8307f545-8e49-4a67-88e7-e36384230195</t>
+          <t>کدام یک از رنگ‌آمیزی‌های ویژه زیر می‌تواند برای تشخیص رابدومیوسارکوم استفاده شود؟</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -24850,7 +24877,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>97bccc99-7bc6-452b-aea0-7772f39f9d22</t>
+          <t>عبارت صحیح در مورد پاتولوژی پنومونی پنوموسیستیس جیرووسی:</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -24907,7 +24934,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>87a51c51-9de7-4626-b5d9-fb677abeadc2</t>
+          <t>کدام یک از ویتامین های زیر با سمیت همراه نیست؟</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -24959,7 +24986,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>604de3ae-1911-483e-b008-8cdd156ad80f</t>
+          <t>اسپرمین در مایع منی توسط کدام روش تشخیص داده می‌شود؟</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -25012,7 +25039,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>fa9bc192-9ecf-4b36-8da2-fc984cc9348a</t>
+          <t>آزمایش تشخیصی برای عفونت ریکتزیایی چیست؟</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -25060,7 +25087,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>b355a25b-99c9-4a47-815e-205a2db6ea02</t>
+          <t>میزان از دست دادن نامحسوس آب در روز چقدر است؟</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -25106,7 +25133,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>b8e1f7a8-2436-4483-a89c-5596094b7b4e</t>
+          <t>کدام یک از موارد زیر با کمبود آنزیم مرتبط است و شامل تخریب پریودنتال در اطراف دندان‌های شیری می‌شود؟</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -25166,7 +25193,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>0f392a0d-69c2-4309-a3f9-21fc18ed7b3b</t>
+          <t>اسپونجیوز در کدام یک از موارد زیر دیده می‌شود؟</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -25217,7 +25244,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>1ca31490-3179-4d30-bc9d-799638a70f86</t>
+          <t>همه موارد زیر از موارد منع مطلق آمبولیزی شریان رحمی هستند به جز:</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -25269,7 +25296,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>14af8c76-7118-4f3d-84fb-882507ab2e99</t>
+          <t>ریزساختار آلیاژ کبالت-کروم در حالت ریخته‌گری چیست؟</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -25325,7 +25352,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>e467135e-7081-49dd-a78e-0964056692f0</t>
+          <t>شوانوم شامل کدام بخش می‌شود؟</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -25379,7 +25406,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>707c7017-5f8b-47bd-98d1-dfbd87b041d6</t>
+          <t>عمل ماز در کدام یک از شرایط زیر انجام می‌شود؟</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -25431,7 +25458,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>0cff9a14-c5d8-4379-ab37-d348dfbef8f3</t>
+          <t>پریکارد فیبروز به کدام قسمت متصل است؟</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -25477,7 +25504,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>6b82f96f-066f-4092-9cd5-48a3a8c3b10c</t>
+          <t>محدوده طبیعی ph خون چیست؟</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -25530,7 +25557,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>b330ab00-530d-4925-aeae-671783a3b994</t>
+          <t>یک زن باردار در سه‌ماهه سوم بارداری با خونریزی بدون درد مراجعه کرده است. شایع‌ترین علت چیست؟</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -25584,7 +25611,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>958e045b-ee50-4e9d-beb6-c32ebe65674b</t>
+          <t>یک بیمار با مقدار بیلیروبین 8 میلی‌گرم در دسی‌لیتر و کراتینین سرم 1.9 میلی‌گرم در دسی‌لیتر برای عمل جراحی برنامه‌ریزی شده است. شل‌کننده عضلانی انتخابی در این بیمار کدام است:</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -25634,7 +25661,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>98ce8737-f7be-4a7c-9477-efe797bd0637</t>
+          <t>وضعیت مقاومت به انسولین که باعث هیپرگلیسمی می‌شود در کدام یک از موارد زیر وجود دارد؟</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -25685,7 +25712,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>8367cc83-5355-43bc-b1be-44c0f712244a</t>
+          <t>یک زن ۳۰ ساله با کوآرکتاسیون آئورت برای سزارین انتخابی به اتاق زایمان پذیرش شده است. کدام یک از تکنیک‌های بیهوشی زیر روش انتخابی است؟</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -25748,7 +25775,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>28f87262-e5cd-47f5-a0e9-add4aae47418</t>
+          <t>کدام یک از آنزیم‌های زیر توسط فسفریلاسیون تنظیم نمی‌شود؟</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -25797,7 +25824,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>9889f6d2-f73e-4141-8e05-0e8cb226032e</t>
+          <t>کدام مورد در مورد آمیلوئید درست نیست؟</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -25855,7 +25882,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>db4bb248-9068-4af5-bb89-706d40e640ea</t>
+          <t>کدام یک از موارد زیر متابولیت فعال یک داروی دیگر است و به عنوان داروی جداگانه برای درمان آنژین در دسترس است؟</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
